--- a/data/trans_orig/P43-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P43-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{954518EC-F07D-4C7B-A4EF-558A77A59B94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3D57E8B9-670E-4462-8501-E5A8E8FC145C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{919EBBE1-4DA4-46C1-9B11-ADCBEEABCBBC}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7CDF7AD8-C0FC-4EC0-BB8C-48BD3273BAD9}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="233">
   <si>
     <t>Población según si le han realizado alguna vez una mamografía por prescripción de algún especialista en 2007 (Tasa respuesta: 50,33%)</t>
   </si>
@@ -80,10 +80,10 @@
     <t>34,78%</t>
   </si>
   <si>
-    <t>29,45%</t>
-  </si>
-  <si>
-    <t>40,86%</t>
+    <t>28,31%</t>
+  </si>
+  <si>
+    <t>40,8%</t>
   </si>
   <si>
     <t>No</t>
@@ -92,10 +92,10 @@
     <t>65,22%</t>
   </si>
   <si>
-    <t>59,14%</t>
-  </si>
-  <si>
-    <t>70,55%</t>
+    <t>59,2%</t>
+  </si>
+  <si>
+    <t>71,69%</t>
   </si>
   <si>
     <t>100%</t>
@@ -107,19 +107,19 @@
     <t>36,41%</t>
   </si>
   <si>
-    <t>32,14%</t>
-  </si>
-  <si>
-    <t>40,67%</t>
+    <t>32,36%</t>
+  </si>
+  <si>
+    <t>41,12%</t>
   </si>
   <si>
     <t>63,59%</t>
   </si>
   <si>
-    <t>59,33%</t>
-  </si>
-  <si>
-    <t>67,86%</t>
+    <t>58,88%</t>
+  </si>
+  <si>
+    <t>67,64%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -128,19 +128,19 @@
     <t>40,77%</t>
   </si>
   <si>
-    <t>35,97%</t>
-  </si>
-  <si>
-    <t>45,99%</t>
+    <t>35,74%</t>
+  </si>
+  <si>
+    <t>46,27%</t>
   </si>
   <si>
     <t>59,23%</t>
   </si>
   <si>
-    <t>54,01%</t>
-  </si>
-  <si>
-    <t>64,03%</t>
+    <t>53,73%</t>
+  </si>
+  <si>
+    <t>64,26%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -149,6 +149,9 @@
     <t>41,22%</t>
   </si>
   <si>
+    <t>36,08%</t>
+  </si>
+  <si>
     <t>46,22%</t>
   </si>
   <si>
@@ -158,25 +161,28 @@
     <t>53,78%</t>
   </si>
   <si>
+    <t>63,92%</t>
+  </si>
+  <si>
     <t>Huelva</t>
   </si>
   <si>
     <t>29,92%</t>
   </si>
   <si>
-    <t>23,54%</t>
-  </si>
-  <si>
-    <t>36,24%</t>
+    <t>24,1%</t>
+  </si>
+  <si>
+    <t>36,57%</t>
   </si>
   <si>
     <t>70,08%</t>
   </si>
   <si>
-    <t>63,76%</t>
-  </si>
-  <si>
-    <t>76,46%</t>
+    <t>63,43%</t>
+  </si>
+  <si>
+    <t>75,9%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -185,19 +191,19 @@
     <t>38,28%</t>
   </si>
   <si>
-    <t>32,94%</t>
-  </si>
-  <si>
-    <t>44,31%</t>
+    <t>32,66%</t>
+  </si>
+  <si>
+    <t>44,95%</t>
   </si>
   <si>
     <t>61,72%</t>
   </si>
   <si>
-    <t>55,69%</t>
-  </si>
-  <si>
-    <t>67,06%</t>
+    <t>55,05%</t>
+  </si>
+  <si>
+    <t>67,34%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -206,19 +212,19 @@
     <t>43,66%</t>
   </si>
   <si>
-    <t>39,58%</t>
-  </si>
-  <si>
-    <t>47,57%</t>
+    <t>39,95%</t>
+  </si>
+  <si>
+    <t>47,79%</t>
   </si>
   <si>
     <t>56,34%</t>
   </si>
   <si>
-    <t>52,43%</t>
-  </si>
-  <si>
-    <t>60,42%</t>
+    <t>52,21%</t>
+  </si>
+  <si>
+    <t>60,05%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -227,37 +233,37 @@
     <t>34,37%</t>
   </si>
   <si>
-    <t>31,18%</t>
-  </si>
-  <si>
-    <t>37,56%</t>
+    <t>31,0%</t>
+  </si>
+  <si>
+    <t>37,83%</t>
   </si>
   <si>
     <t>65,63%</t>
   </si>
   <si>
-    <t>62,44%</t>
-  </si>
-  <si>
-    <t>68,82%</t>
+    <t>62,17%</t>
+  </si>
+  <si>
+    <t>69,0%</t>
   </si>
   <si>
     <t>37,91%</t>
   </si>
   <si>
-    <t>36,16%</t>
-  </si>
-  <si>
-    <t>39,59%</t>
+    <t>36,32%</t>
+  </si>
+  <si>
+    <t>39,61%</t>
   </si>
   <si>
     <t>62,09%</t>
   </si>
   <si>
-    <t>60,41%</t>
-  </si>
-  <si>
-    <t>63,84%</t>
+    <t>60,39%</t>
+  </si>
+  <si>
+    <t>63,68%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -416,157 +422,157 @@
     <t>50,45%</t>
   </si>
   <si>
-    <t>44,87%</t>
-  </si>
-  <si>
-    <t>56,81%</t>
+    <t>44,9%</t>
+  </si>
+  <si>
+    <t>57,06%</t>
   </si>
   <si>
     <t>49,55%</t>
   </si>
   <si>
-    <t>43,19%</t>
-  </si>
-  <si>
-    <t>55,13%</t>
+    <t>42,94%</t>
+  </si>
+  <si>
+    <t>55,1%</t>
   </si>
   <si>
     <t>51,04%</t>
   </si>
   <si>
-    <t>46,62%</t>
-  </si>
-  <si>
-    <t>54,95%</t>
+    <t>46,7%</t>
+  </si>
+  <si>
+    <t>55,55%</t>
   </si>
   <si>
     <t>48,96%</t>
   </si>
   <si>
-    <t>45,05%</t>
-  </si>
-  <si>
-    <t>53,38%</t>
+    <t>44,45%</t>
+  </si>
+  <si>
+    <t>53,3%</t>
   </si>
   <si>
     <t>56,69%</t>
   </si>
   <si>
-    <t>51,01%</t>
-  </si>
-  <si>
-    <t>61,93%</t>
+    <t>51,53%</t>
+  </si>
+  <si>
+    <t>62,35%</t>
   </si>
   <si>
     <t>43,31%</t>
   </si>
   <si>
-    <t>38,07%</t>
-  </si>
-  <si>
-    <t>48,99%</t>
+    <t>37,65%</t>
+  </si>
+  <si>
+    <t>48,47%</t>
   </si>
   <si>
     <t>52,84%</t>
   </si>
   <si>
-    <t>47,39%</t>
-  </si>
-  <si>
-    <t>57,92%</t>
+    <t>48,03%</t>
+  </si>
+  <si>
+    <t>57,72%</t>
   </si>
   <si>
     <t>47,16%</t>
   </si>
   <si>
-    <t>42,08%</t>
-  </si>
-  <si>
-    <t>52,61%</t>
+    <t>42,28%</t>
+  </si>
+  <si>
+    <t>51,97%</t>
   </si>
   <si>
     <t>52,68%</t>
   </si>
   <si>
-    <t>46,61%</t>
-  </si>
-  <si>
-    <t>59,08%</t>
+    <t>46,41%</t>
+  </si>
+  <si>
+    <t>59,76%</t>
   </si>
   <si>
     <t>47,32%</t>
   </si>
   <si>
-    <t>40,92%</t>
-  </si>
-  <si>
-    <t>53,39%</t>
+    <t>40,24%</t>
+  </si>
+  <si>
+    <t>53,59%</t>
   </si>
   <si>
     <t>49,96%</t>
   </si>
   <si>
-    <t>43,47%</t>
-  </si>
-  <si>
-    <t>55,47%</t>
+    <t>43,96%</t>
+  </si>
+  <si>
+    <t>56,01%</t>
   </si>
   <si>
     <t>50,04%</t>
   </si>
   <si>
-    <t>44,53%</t>
-  </si>
-  <si>
-    <t>56,53%</t>
+    <t>43,99%</t>
+  </si>
+  <si>
+    <t>56,04%</t>
   </si>
   <si>
     <t>42,34%</t>
   </si>
   <si>
-    <t>38,3%</t>
-  </si>
-  <si>
-    <t>46,47%</t>
+    <t>38,51%</t>
   </si>
   <si>
     <t>57,66%</t>
   </si>
   <si>
-    <t>53,53%</t>
-  </si>
-  <si>
-    <t>61,7%</t>
+    <t>61,49%</t>
   </si>
   <si>
     <t>50,49%</t>
   </si>
   <si>
-    <t>46,91%</t>
-  </si>
-  <si>
-    <t>54,05%</t>
+    <t>47,03%</t>
+  </si>
+  <si>
+    <t>54,42%</t>
   </si>
   <si>
     <t>49,51%</t>
   </si>
   <si>
-    <t>45,95%</t>
-  </si>
-  <si>
-    <t>53,09%</t>
+    <t>45,58%</t>
+  </si>
+  <si>
+    <t>52,97%</t>
   </si>
   <si>
     <t>49,93%</t>
   </si>
   <si>
-    <t>51,71%</t>
+    <t>48,3%</t>
+  </si>
+  <si>
+    <t>51,82%</t>
   </si>
   <si>
     <t>50,07%</t>
   </si>
   <si>
-    <t>48,29%</t>
+    <t>48,18%</t>
+  </si>
+  <si>
+    <t>51,7%</t>
   </si>
   <si>
     <t>Población según si le han realizado alguna vez una mamografía por prescripción de algún especialista en 2023 (Tasa respuesta: 46,09%)</t>
@@ -575,97 +581,109 @@
     <t>64,25%</t>
   </si>
   <si>
-    <t>57,86%</t>
-  </si>
-  <si>
-    <t>69,85%</t>
+    <t>57,74%</t>
+  </si>
+  <si>
+    <t>69,92%</t>
   </si>
   <si>
     <t>35,75%</t>
   </si>
   <si>
-    <t>30,15%</t>
-  </si>
-  <si>
-    <t>42,14%</t>
+    <t>30,08%</t>
+  </si>
+  <si>
+    <t>42,26%</t>
   </si>
   <si>
     <t>54,81%</t>
   </si>
   <si>
-    <t>50,03%</t>
+    <t>50,34%</t>
+  </si>
+  <si>
+    <t>59,28%</t>
   </si>
   <si>
     <t>45,19%</t>
   </si>
   <si>
-    <t>49,97%</t>
+    <t>40,72%</t>
+  </si>
+  <si>
+    <t>49,66%</t>
   </si>
   <si>
     <t>54,12%</t>
   </si>
   <si>
-    <t>48,05%</t>
-  </si>
-  <si>
-    <t>59,28%</t>
+    <t>48,52%</t>
+  </si>
+  <si>
+    <t>59,7%</t>
   </si>
   <si>
     <t>45,88%</t>
   </si>
   <si>
-    <t>40,72%</t>
-  </si>
-  <si>
-    <t>51,95%</t>
+    <t>40,3%</t>
+  </si>
+  <si>
+    <t>51,48%</t>
   </si>
   <si>
     <t>51,26%</t>
   </si>
   <si>
-    <t>43,69%</t>
-  </si>
-  <si>
-    <t>58,41%</t>
+    <t>43,22%</t>
+  </si>
+  <si>
+    <t>57,64%</t>
   </si>
   <si>
     <t>48,74%</t>
   </si>
   <si>
-    <t>41,59%</t>
-  </si>
-  <si>
-    <t>56,31%</t>
+    <t>42,36%</t>
+  </si>
+  <si>
+    <t>56,78%</t>
   </si>
   <si>
     <t>71,93%</t>
   </si>
   <si>
-    <t>65,73%</t>
-  </si>
-  <si>
-    <t>77,5%</t>
+    <t>65,47%</t>
+  </si>
+  <si>
+    <t>77,27%</t>
   </si>
   <si>
     <t>28,07%</t>
   </si>
   <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>34,27%</t>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>34,53%</t>
   </si>
   <si>
     <t>53,34%</t>
   </si>
   <si>
-    <t>58,84%</t>
+    <t>48,13%</t>
+  </si>
+  <si>
+    <t>59,46%</t>
   </si>
   <si>
     <t>46,66%</t>
   </si>
   <si>
-    <t>41,16%</t>
+    <t>40,54%</t>
+  </si>
+  <si>
+    <t>51,87%</t>
   </si>
   <si>
     <t>68,65%</t>
@@ -674,13 +692,13 @@
     <t>59,88%</t>
   </si>
   <si>
-    <t>83,83%</t>
+    <t>84,91%</t>
   </si>
   <si>
     <t>31,35%</t>
   </si>
   <si>
-    <t>16,17%</t>
+    <t>15,09%</t>
   </si>
   <si>
     <t>40,12%</t>
@@ -689,37 +707,37 @@
     <t>37,16%</t>
   </si>
   <si>
-    <t>34,08%</t>
-  </si>
-  <si>
-    <t>40,69%</t>
+    <t>33,83%</t>
+  </si>
+  <si>
+    <t>40,7%</t>
   </si>
   <si>
     <t>62,84%</t>
   </si>
   <si>
-    <t>59,31%</t>
-  </si>
-  <si>
-    <t>65,92%</t>
+    <t>59,3%</t>
+  </si>
+  <si>
+    <t>66,17%</t>
   </si>
   <si>
     <t>54,4%</t>
   </si>
   <si>
-    <t>51,72%</t>
-  </si>
-  <si>
-    <t>60,6%</t>
+    <t>51,81%</t>
+  </si>
+  <si>
+    <t>59,81%</t>
   </si>
   <si>
     <t>45,6%</t>
   </si>
   <si>
-    <t>39,4%</t>
-  </si>
-  <si>
-    <t>48,28%</t>
+    <t>40,19%</t>
+  </si>
+  <si>
+    <t>48,19%</t>
   </si>
 </sst>
 </file>
@@ -1131,7 +1149,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40E60DD5-F40C-41C9-9ACE-8D41F3558A8C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F49C6733-92DE-4672-A67A-55F46F867296}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1718,10 +1736,10 @@
         <v>35</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M13" s="7">
         <v>161</v>
@@ -1733,10 +1751,10 @@
         <v>35</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1764,13 +1782,13 @@
         <v>218326</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="M14" s="7">
         <v>223</v>
@@ -1779,13 +1797,13 @@
         <v>218326</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1839,7 +1857,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1864,13 +1882,13 @@
         <v>61380</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="M16" s="7">
         <v>60</v>
@@ -1879,13 +1897,13 @@
         <v>61380</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1913,13 +1931,13 @@
         <v>143762</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M17" s="7">
         <v>136</v>
@@ -1928,13 +1946,13 @@
         <v>143762</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1988,7 +2006,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2013,13 +2031,13 @@
         <v>106102</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="M19" s="7">
         <v>103</v>
@@ -2028,13 +2046,13 @@
         <v>106102</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2062,13 +2080,13 @@
         <v>171102</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="M20" s="7">
         <v>166</v>
@@ -2077,13 +2095,13 @@
         <v>171102</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2137,7 +2155,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2162,13 +2180,13 @@
         <v>276948</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="M22" s="7">
         <v>270</v>
@@ -2177,13 +2195,13 @@
         <v>276948</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2211,13 +2229,13 @@
         <v>357310</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="M23" s="7">
         <v>347</v>
@@ -2226,13 +2244,13 @@
         <v>357310</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2286,7 +2304,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2311,13 +2329,13 @@
         <v>267060</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M25" s="7">
         <v>255</v>
@@ -2326,13 +2344,13 @@
         <v>267060</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2360,13 +2378,13 @@
         <v>509855</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M26" s="7">
         <v>483</v>
@@ -2375,13 +2393,13 @@
         <v>509855</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2460,13 +2478,13 @@
         <v>1273441</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="M28" s="7">
         <v>1252</v>
@@ -2475,13 +2493,13 @@
         <v>1273441</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2509,13 +2527,13 @@
         <v>2086053</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M29" s="7">
         <v>2025</v>
@@ -2524,13 +2542,13 @@
         <v>2086053</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2584,7 +2602,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -2608,7 +2626,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C202B292-2BF6-4A1A-9CEA-370B8E906089}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7259A7E-E32B-4224-B645-83E71520F885}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2625,7 +2643,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2882,13 +2900,13 @@
         <v>218325</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="M7" s="7">
         <v>195</v>
@@ -2897,13 +2915,13 @@
         <v>218325</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2931,13 +2949,13 @@
         <v>304408</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M8" s="7">
         <v>284</v>
@@ -2946,13 +2964,13 @@
         <v>304408</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3031,13 +3049,13 @@
         <v>158977</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="M10" s="7">
         <v>144</v>
@@ -3046,13 +3064,13 @@
         <v>158977</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3080,13 +3098,13 @@
         <v>181057</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="M11" s="7">
         <v>172</v>
@@ -3095,13 +3113,13 @@
         <v>181057</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3180,13 +3198,13 @@
         <v>332770</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="M13" s="7">
         <v>310</v>
@@ -3195,13 +3213,13 @@
         <v>332770</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3229,13 +3247,13 @@
         <v>336107</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M14" s="7">
         <v>310</v>
@@ -3244,13 +3262,13 @@
         <v>336107</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3304,7 +3322,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3329,13 +3347,13 @@
         <v>104880</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M16" s="7">
         <v>101</v>
@@ -3344,13 +3362,13 @@
         <v>104880</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3378,13 +3396,13 @@
         <v>114711</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="M17" s="7">
         <v>111</v>
@@ -3393,13 +3411,13 @@
         <v>114711</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3453,7 +3471,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3478,13 +3496,13 @@
         <v>136147</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M19" s="7">
         <v>131</v>
@@ -3493,13 +3511,13 @@
         <v>136147</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3527,13 +3545,13 @@
         <v>143884</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="M20" s="7">
         <v>138</v>
@@ -3542,13 +3560,13 @@
         <v>143884</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3602,7 +3620,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3627,13 +3645,13 @@
         <v>352823</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="M22" s="7">
         <v>315</v>
@@ -3642,13 +3660,13 @@
         <v>352823</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3676,13 +3694,13 @@
         <v>337996</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M23" s="7">
         <v>318</v>
@@ -3691,13 +3709,13 @@
         <v>337996</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3751,7 +3769,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3776,13 +3794,13 @@
         <v>363327</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="M25" s="7">
         <v>327</v>
@@ -3791,13 +3809,13 @@
         <v>363327</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3825,13 +3843,13 @@
         <v>451147</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="M26" s="7">
         <v>421</v>
@@ -3840,13 +3858,13 @@
         <v>451147</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3925,13 +3943,13 @@
         <v>1667249</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M28" s="7">
         <v>1523</v>
@@ -3940,13 +3958,13 @@
         <v>1667249</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3974,13 +3992,13 @@
         <v>1869309</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="M29" s="7">
         <v>1754</v>
@@ -3989,13 +4007,13 @@
         <v>1869309</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4049,7 +4067,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -4073,7 +4091,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB3CAAA1-B8EC-4E8F-950F-5885A66CD914}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64C735EE-A19C-4B05-B73B-425880776AE5}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4090,7 +4108,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4210,13 +4228,13 @@
         <v>144413</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="M4" s="7">
         <v>135</v>
@@ -4225,13 +4243,13 @@
         <v>144413</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4259,13 +4277,13 @@
         <v>141849</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="M5" s="7">
         <v>140</v>
@@ -4274,13 +4292,13 @@
         <v>141849</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4359,13 +4377,13 @@
         <v>266175</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="M7" s="7">
         <v>238</v>
@@ -4374,13 +4392,13 @@
         <v>266175</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4408,13 +4426,13 @@
         <v>255286</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M8" s="7">
         <v>245</v>
@@ -4423,13 +4441,13 @@
         <v>255286</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4508,13 +4526,13 @@
         <v>187999</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M10" s="7">
         <v>180</v>
@@ -4523,13 +4541,13 @@
         <v>187999</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4557,13 +4575,13 @@
         <v>143610</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="M11" s="7">
         <v>147</v>
@@ -4572,13 +4590,13 @@
         <v>143610</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4657,13 +4675,13 @@
         <v>203988</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="M13" s="7">
         <v>185</v>
@@ -4672,13 +4690,13 @@
         <v>203988</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4706,13 +4724,13 @@
         <v>182090</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="M14" s="7">
         <v>172</v>
@@ -4721,13 +4739,13 @@
         <v>182090</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4781,7 +4799,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4806,13 +4824,13 @@
         <v>114692</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="M16" s="7">
         <v>111</v>
@@ -4821,13 +4839,13 @@
         <v>114692</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4855,13 +4873,13 @@
         <v>103027</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="M17" s="7">
         <v>111</v>
@@ -4870,13 +4888,13 @@
         <v>103027</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4930,7 +4948,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4955,13 +4973,13 @@
         <v>136442</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M19" s="7">
         <v>128</v>
@@ -4970,13 +4988,13 @@
         <v>136442</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5004,13 +5022,13 @@
         <v>136673</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="M20" s="7">
         <v>135</v>
@@ -5019,13 +5037,13 @@
         <v>136673</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5079,7 +5097,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5104,13 +5122,13 @@
         <v>288524</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>162</v>
+        <v>30</v>
       </c>
       <c r="M22" s="7">
         <v>257</v>
@@ -5119,13 +5137,13 @@
         <v>288524</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>162</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5153,10 +5171,10 @@
         <v>392860</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>164</v>
+        <v>32</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>165</v>
@@ -5168,10 +5186,10 @@
         <v>392860</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>164</v>
+        <v>32</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>165</v>
@@ -5228,7 +5246,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -5405,10 +5423,10 @@
         <v>172</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>113</v>
+        <v>173</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M28" s="7">
         <v>1595</v>
@@ -5420,10 +5438,10 @@
         <v>172</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>113</v>
+        <v>173</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5451,13 +5469,13 @@
         <v>1762390</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>115</v>
+        <v>177</v>
       </c>
       <c r="M29" s="7">
         <v>1720</v>
@@ -5466,13 +5484,13 @@
         <v>1762390</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>115</v>
+        <v>177</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5526,7 +5544,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -5550,7 +5568,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEDB449E-E2A6-4F5C-B3E1-C604789A876E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{603903C4-8A86-4A9B-9472-551A44B4BBD8}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5567,7 +5585,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5687,13 +5705,13 @@
         <v>112139</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="M4" s="7">
         <v>236</v>
@@ -5702,13 +5720,13 @@
         <v>112139</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5736,13 +5754,13 @@
         <v>62407</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M5" s="7">
         <v>113</v>
@@ -5751,13 +5769,13 @@
         <v>62407</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5836,13 +5854,13 @@
         <v>239844</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>31</v>
+        <v>187</v>
       </c>
       <c r="M7" s="7">
         <v>336</v>
@@ -5851,13 +5869,13 @@
         <v>239844</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>31</v>
+        <v>187</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5885,13 +5903,13 @@
         <v>197712</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>28</v>
+        <v>189</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="M8" s="7">
         <v>225</v>
@@ -5900,13 +5918,13 @@
         <v>197712</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>28</v>
+        <v>189</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5985,13 +6003,13 @@
         <v>146012</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="M10" s="7">
         <v>241</v>
@@ -6000,13 +6018,13 @@
         <v>146012</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6034,13 +6052,13 @@
         <v>123760</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="M11" s="7">
         <v>145</v>
@@ -6049,13 +6067,13 @@
         <v>123760</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6134,13 +6152,13 @@
         <v>170058</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="M13" s="7">
         <v>303</v>
@@ -6149,13 +6167,13 @@
         <v>170058</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6183,13 +6201,13 @@
         <v>161666</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="M14" s="7">
         <v>160</v>
@@ -6198,13 +6216,13 @@
         <v>161666</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6258,7 +6276,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6283,13 +6301,13 @@
         <v>122692</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="M16" s="7">
         <v>293</v>
@@ -6298,13 +6316,13 @@
         <v>122692</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6332,13 +6350,13 @@
         <v>47883</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="M17" s="7">
         <v>75</v>
@@ -6347,13 +6365,13 @@
         <v>47883</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6407,7 +6425,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6432,13 +6450,13 @@
         <v>119880</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>85</v>
+        <v>210</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="M19" s="7">
         <v>241</v>
@@ -6447,13 +6465,13 @@
         <v>119880</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>85</v>
+        <v>210</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6481,13 +6499,13 @@
         <v>104865</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>83</v>
+        <v>214</v>
       </c>
       <c r="M20" s="7">
         <v>138</v>
@@ -6496,13 +6514,13 @@
         <v>104865</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>83</v>
+        <v>214</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6556,7 +6574,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6581,13 +6599,13 @@
         <v>411698</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="M22" s="7">
         <v>450</v>
@@ -6596,13 +6614,13 @@
         <v>411698</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6630,13 +6648,13 @@
         <v>188008</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="M23" s="7">
         <v>222</v>
@@ -6645,13 +6663,13 @@
         <v>188008</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6705,7 +6723,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -6730,13 +6748,13 @@
         <v>260645</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="M25" s="7">
         <v>367</v>
@@ -6745,13 +6763,13 @@
         <v>260645</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6779,13 +6797,13 @@
         <v>440860</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="M26" s="7">
         <v>485</v>
@@ -6794,13 +6812,13 @@
         <v>440860</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6879,13 +6897,13 @@
         <v>1582967</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="M28" s="7">
         <v>2467</v>
@@ -6894,13 +6912,13 @@
         <v>1582967</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6928,13 +6946,13 @@
         <v>1327161</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="M29" s="7">
         <v>1563</v>
@@ -6943,13 +6961,13 @@
         <v>1327161</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7003,7 +7021,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P43-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P43-Provincia-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3D57E8B9-670E-4462-8501-E5A8E8FC145C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D8788903-A5ED-4A90-B4E5-EF797F794FD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7CDF7AD8-C0FC-4EC0-BB8C-48BD3273BAD9}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2DD32579-FA7E-43EC-BEBE-EE55E9056305}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="231">
   <si>
     <t>Población según si le han realizado alguna vez una mamografía por prescripción de algún especialista en 2007 (Tasa respuesta: 50,33%)</t>
   </si>
@@ -80,10 +80,10 @@
     <t>34,78%</t>
   </si>
   <si>
-    <t>28,31%</t>
-  </si>
-  <si>
-    <t>40,8%</t>
+    <t>29,01%</t>
+  </si>
+  <si>
+    <t>41,0%</t>
   </si>
   <si>
     <t>No</t>
@@ -92,10 +92,10 @@
     <t>65,22%</t>
   </si>
   <si>
-    <t>59,2%</t>
-  </si>
-  <si>
-    <t>71,69%</t>
+    <t>59,0%</t>
+  </si>
+  <si>
+    <t>70,99%</t>
   </si>
   <si>
     <t>100%</t>
@@ -107,19 +107,19 @@
     <t>36,41%</t>
   </si>
   <si>
-    <t>32,36%</t>
-  </si>
-  <si>
-    <t>41,12%</t>
+    <t>32,5%</t>
+  </si>
+  <si>
+    <t>40,78%</t>
   </si>
   <si>
     <t>63,59%</t>
   </si>
   <si>
-    <t>58,88%</t>
-  </si>
-  <si>
-    <t>67,64%</t>
+    <t>59,22%</t>
+  </si>
+  <si>
+    <t>67,5%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -128,19 +128,19 @@
     <t>40,77%</t>
   </si>
   <si>
-    <t>35,74%</t>
-  </si>
-  <si>
-    <t>46,27%</t>
+    <t>36,19%</t>
+  </si>
+  <si>
+    <t>46,44%</t>
   </si>
   <si>
     <t>59,23%</t>
   </si>
   <si>
-    <t>53,73%</t>
-  </si>
-  <si>
-    <t>64,26%</t>
+    <t>53,56%</t>
+  </si>
+  <si>
+    <t>63,81%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -149,19 +149,19 @@
     <t>41,22%</t>
   </si>
   <si>
-    <t>36,08%</t>
-  </si>
-  <si>
-    <t>46,22%</t>
+    <t>36,26%</t>
+  </si>
+  <si>
+    <t>46,18%</t>
   </si>
   <si>
     <t>58,78%</t>
   </si>
   <si>
-    <t>53,78%</t>
-  </si>
-  <si>
-    <t>63,92%</t>
+    <t>53,82%</t>
+  </si>
+  <si>
+    <t>63,74%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -170,19 +170,19 @@
     <t>29,92%</t>
   </si>
   <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>36,57%</t>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>36,98%</t>
   </si>
   <si>
     <t>70,08%</t>
   </si>
   <si>
-    <t>63,43%</t>
-  </si>
-  <si>
-    <t>75,9%</t>
+    <t>63,02%</t>
+  </si>
+  <si>
+    <t>76,09%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -191,19 +191,19 @@
     <t>38,28%</t>
   </si>
   <si>
-    <t>32,66%</t>
-  </si>
-  <si>
-    <t>44,95%</t>
+    <t>32,33%</t>
+  </si>
+  <si>
+    <t>44,48%</t>
   </si>
   <si>
     <t>61,72%</t>
   </si>
   <si>
-    <t>55,05%</t>
-  </si>
-  <si>
-    <t>67,34%</t>
+    <t>55,52%</t>
+  </si>
+  <si>
+    <t>67,67%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -212,19 +212,19 @@
     <t>43,66%</t>
   </si>
   <si>
-    <t>39,95%</t>
-  </si>
-  <si>
-    <t>47,79%</t>
+    <t>39,68%</t>
+  </si>
+  <si>
+    <t>47,2%</t>
   </si>
   <si>
     <t>56,34%</t>
   </si>
   <si>
-    <t>52,21%</t>
-  </si>
-  <si>
-    <t>60,05%</t>
+    <t>52,8%</t>
+  </si>
+  <si>
+    <t>60,32%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -233,37 +233,37 @@
     <t>34,37%</t>
   </si>
   <si>
-    <t>31,0%</t>
-  </si>
-  <si>
-    <t>37,83%</t>
+    <t>31,02%</t>
+  </si>
+  <si>
+    <t>37,66%</t>
   </si>
   <si>
     <t>65,63%</t>
   </si>
   <si>
-    <t>62,17%</t>
-  </si>
-  <si>
-    <t>69,0%</t>
+    <t>62,34%</t>
+  </si>
+  <si>
+    <t>68,98%</t>
   </si>
   <si>
     <t>37,91%</t>
   </si>
   <si>
-    <t>36,32%</t>
-  </si>
-  <si>
-    <t>39,61%</t>
+    <t>36,24%</t>
+  </si>
+  <si>
+    <t>39,42%</t>
   </si>
   <si>
     <t>62,09%</t>
   </si>
   <si>
-    <t>60,39%</t>
-  </si>
-  <si>
-    <t>63,68%</t>
+    <t>60,58%</t>
+  </si>
+  <si>
+    <t>63,76%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -275,99 +275,90 @@
     <t>41,77%</t>
   </si>
   <si>
-    <t>37,11%</t>
-  </si>
-  <si>
-    <t>46,12%</t>
+    <t>37,41%</t>
+  </si>
+  <si>
+    <t>46,42%</t>
   </si>
   <si>
     <t>58,23%</t>
   </si>
   <si>
-    <t>53,88%</t>
-  </si>
-  <si>
-    <t>62,89%</t>
+    <t>53,58%</t>
+  </si>
+  <si>
+    <t>62,59%</t>
   </si>
   <si>
     <t>46,75%</t>
   </si>
   <si>
-    <t>41,03%</t>
-  </si>
-  <si>
-    <t>52,38%</t>
+    <t>41,67%</t>
+  </si>
+  <si>
+    <t>52,13%</t>
   </si>
   <si>
     <t>53,25%</t>
   </si>
   <si>
-    <t>47,62%</t>
-  </si>
-  <si>
-    <t>58,97%</t>
+    <t>47,87%</t>
+  </si>
+  <si>
+    <t>58,33%</t>
   </si>
   <si>
     <t>49,75%</t>
   </si>
   <si>
-    <t>45,4%</t>
-  </si>
-  <si>
-    <t>53,13%</t>
+    <t>46,2%</t>
   </si>
   <si>
     <t>50,25%</t>
   </si>
   <si>
-    <t>46,87%</t>
-  </si>
-  <si>
-    <t>54,6%</t>
+    <t>53,8%</t>
   </si>
   <si>
     <t>47,76%</t>
   </si>
   <si>
-    <t>41,0%</t>
-  </si>
-  <si>
-    <t>54,33%</t>
+    <t>41,37%</t>
+  </si>
+  <si>
+    <t>55,06%</t>
   </si>
   <si>
     <t>52,24%</t>
   </si>
   <si>
-    <t>45,67%</t>
-  </si>
-  <si>
-    <t>59,0%</t>
+    <t>44,94%</t>
+  </si>
+  <si>
+    <t>58,63%</t>
   </si>
   <si>
     <t>48,62%</t>
   </si>
   <si>
-    <t>42,3%</t>
-  </si>
-  <si>
-    <t>54,58%</t>
+    <t>42,42%</t>
+  </si>
+  <si>
+    <t>54,39%</t>
   </si>
   <si>
     <t>51,38%</t>
   </si>
   <si>
-    <t>45,42%</t>
-  </si>
-  <si>
-    <t>57,7%</t>
+    <t>45,61%</t>
+  </si>
+  <si>
+    <t>57,58%</t>
   </si>
   <si>
     <t>51,07%</t>
   </si>
   <si>
-    <t>47,0%</t>
-  </si>
-  <si>
     <t>55,34%</t>
   </si>
   <si>
@@ -377,22 +368,19 @@
     <t>44,66%</t>
   </si>
   <si>
-    <t>53,0%</t>
-  </si>
-  <si>
     <t>44,61%</t>
   </si>
   <si>
     <t>41,02%</t>
   </si>
   <si>
-    <t>48,24%</t>
+    <t>48,21%</t>
   </si>
   <si>
     <t>55,39%</t>
   </si>
   <si>
-    <t>51,76%</t>
+    <t>51,79%</t>
   </si>
   <si>
     <t>58,98%</t>
@@ -401,178 +389,184 @@
     <t>47,14%</t>
   </si>
   <si>
-    <t>45,56%</t>
-  </si>
-  <si>
-    <t>48,86%</t>
+    <t>45,36%</t>
+  </si>
+  <si>
+    <t>48,81%</t>
   </si>
   <si>
     <t>52,86%</t>
   </si>
   <si>
-    <t>51,14%</t>
-  </si>
-  <si>
-    <t>54,44%</t>
-  </si>
-  <si>
-    <t>Población según si le han realizado alguna vez una mamografía por prescripción de algún especialista en 2015 (Tasa respuesta: 50,46%)</t>
+    <t>51,19%</t>
+  </si>
+  <si>
+    <t>54,64%</t>
+  </si>
+  <si>
+    <t>Población según si le han realizado alguna vez una mamografía por prescripción de algún especialista en 2016 (Tasa respuesta: 50,46%)</t>
   </si>
   <si>
     <t>50,45%</t>
   </si>
   <si>
-    <t>44,9%</t>
-  </si>
-  <si>
-    <t>57,06%</t>
+    <t>44,59%</t>
+  </si>
+  <si>
+    <t>56,63%</t>
   </si>
   <si>
     <t>49,55%</t>
   </si>
   <si>
-    <t>42,94%</t>
-  </si>
-  <si>
-    <t>55,1%</t>
+    <t>43,37%</t>
+  </si>
+  <si>
+    <t>55,41%</t>
   </si>
   <si>
     <t>51,04%</t>
   </si>
   <si>
-    <t>46,7%</t>
-  </si>
-  <si>
-    <t>55,55%</t>
+    <t>46,83%</t>
+  </si>
+  <si>
+    <t>56,03%</t>
   </si>
   <si>
     <t>48,96%</t>
   </si>
   <si>
-    <t>44,45%</t>
-  </si>
-  <si>
-    <t>53,3%</t>
+    <t>43,97%</t>
+  </si>
+  <si>
+    <t>53,17%</t>
   </si>
   <si>
     <t>56,69%</t>
   </si>
   <si>
-    <t>51,53%</t>
-  </si>
-  <si>
-    <t>62,35%</t>
+    <t>51,16%</t>
+  </si>
+  <si>
+    <t>62,31%</t>
   </si>
   <si>
     <t>43,31%</t>
   </si>
   <si>
-    <t>37,65%</t>
-  </si>
-  <si>
-    <t>48,47%</t>
+    <t>37,69%</t>
+  </si>
+  <si>
+    <t>48,84%</t>
   </si>
   <si>
     <t>52,84%</t>
   </si>
   <si>
-    <t>48,03%</t>
-  </si>
-  <si>
-    <t>57,72%</t>
+    <t>47,21%</t>
+  </si>
+  <si>
+    <t>57,76%</t>
   </si>
   <si>
     <t>47,16%</t>
   </si>
   <si>
-    <t>42,28%</t>
-  </si>
-  <si>
-    <t>51,97%</t>
+    <t>42,24%</t>
+  </si>
+  <si>
+    <t>52,79%</t>
   </si>
   <si>
     <t>52,68%</t>
   </si>
   <si>
-    <t>46,41%</t>
-  </si>
-  <si>
-    <t>59,76%</t>
+    <t>46,13%</t>
+  </si>
+  <si>
+    <t>59,65%</t>
   </si>
   <si>
     <t>47,32%</t>
   </si>
   <si>
-    <t>40,24%</t>
-  </si>
-  <si>
-    <t>53,59%</t>
+    <t>40,35%</t>
+  </si>
+  <si>
+    <t>53,87%</t>
   </si>
   <si>
     <t>49,96%</t>
   </si>
   <si>
-    <t>43,96%</t>
-  </si>
-  <si>
-    <t>56,01%</t>
+    <t>43,52%</t>
+  </si>
+  <si>
+    <t>55,46%</t>
   </si>
   <si>
     <t>50,04%</t>
   </si>
   <si>
-    <t>43,99%</t>
-  </si>
-  <si>
-    <t>56,04%</t>
+    <t>44,54%</t>
+  </si>
+  <si>
+    <t>56,48%</t>
   </si>
   <si>
     <t>42,34%</t>
   </si>
   <si>
-    <t>38,51%</t>
+    <t>38,59%</t>
+  </si>
+  <si>
+    <t>46,09%</t>
   </si>
   <si>
     <t>57,66%</t>
   </si>
   <si>
-    <t>61,49%</t>
+    <t>53,91%</t>
+  </si>
+  <si>
+    <t>61,41%</t>
   </si>
   <si>
     <t>50,49%</t>
   </si>
   <si>
-    <t>47,03%</t>
-  </si>
-  <si>
-    <t>54,42%</t>
+    <t>47,1%</t>
+  </si>
+  <si>
+    <t>54,5%</t>
   </si>
   <si>
     <t>49,51%</t>
   </si>
   <si>
-    <t>45,58%</t>
-  </si>
-  <si>
-    <t>52,97%</t>
+    <t>45,5%</t>
+  </si>
+  <si>
+    <t>52,9%</t>
   </si>
   <si>
     <t>49,93%</t>
   </si>
   <si>
-    <t>48,3%</t>
-  </si>
-  <si>
-    <t>51,82%</t>
+    <t>48,11%</t>
+  </si>
+  <si>
+    <t>51,61%</t>
   </si>
   <si>
     <t>50,07%</t>
   </si>
   <si>
-    <t>48,18%</t>
-  </si>
-  <si>
-    <t>51,7%</t>
+    <t>48,39%</t>
+  </si>
+  <si>
+    <t>51,89%</t>
   </si>
   <si>
     <t>Población según si le han realizado alguna vez una mamografía por prescripción de algún especialista en 2023 (Tasa respuesta: 46,09%)</t>
@@ -1149,7 +1143,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F49C6733-92DE-4672-A67A-55F46F867296}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81797AD6-A5C2-4D20-A1D7-4E907BCC0F91}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2626,7 +2620,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7259A7E-E32B-4224-B645-83E71520F885}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F53869F3-7855-4B32-B6DC-68A8C6E68F59}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3204,7 +3198,7 @@
         <v>90</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="M13" s="7">
         <v>310</v>
@@ -3219,7 +3213,7 @@
         <v>90</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3247,13 +3241,13 @@
         <v>336107</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M14" s="7">
         <v>310</v>
@@ -3262,13 +3256,13 @@
         <v>336107</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3347,13 +3341,13 @@
         <v>104880</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="M16" s="7">
         <v>101</v>
@@ -3362,13 +3356,13 @@
         <v>104880</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3396,13 +3390,13 @@
         <v>114711</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="M17" s="7">
         <v>111</v>
@@ -3411,13 +3405,13 @@
         <v>114711</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3496,13 +3490,13 @@
         <v>136147</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M19" s="7">
         <v>131</v>
@@ -3511,13 +3505,13 @@
         <v>136147</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3545,13 +3539,13 @@
         <v>143884</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="M20" s="7">
         <v>138</v>
@@ -3560,13 +3554,13 @@
         <v>143884</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3645,13 +3639,13 @@
         <v>352823</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>108</v>
+        <v>58</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="M22" s="7">
         <v>315</v>
@@ -3660,13 +3654,13 @@
         <v>352823</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>108</v>
+        <v>58</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3691,31 +3685,31 @@
         <v>318</v>
       </c>
       <c r="I23" s="7">
-        <v>337996</v>
+        <v>337995</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>112</v>
+        <v>60</v>
       </c>
       <c r="M23" s="7">
         <v>318</v>
       </c>
       <c r="N23" s="7">
-        <v>337996</v>
+        <v>337995</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>112</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3740,7 +3734,7 @@
         <v>633</v>
       </c>
       <c r="I24" s="7">
-        <v>690819</v>
+        <v>690818</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>19</v>
@@ -3755,7 +3749,7 @@
         <v>633</v>
       </c>
       <c r="N24" s="7">
-        <v>690819</v>
+        <v>690818</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>19</v>
@@ -3794,13 +3788,13 @@
         <v>363327</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="M25" s="7">
         <v>327</v>
@@ -3809,13 +3803,13 @@
         <v>363327</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3843,13 +3837,13 @@
         <v>451147</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="M26" s="7">
         <v>421</v>
@@ -3858,13 +3852,13 @@
         <v>451147</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3943,13 +3937,13 @@
         <v>1667249</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="M28" s="7">
         <v>1523</v>
@@ -3958,13 +3952,13 @@
         <v>1667249</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3992,13 +3986,13 @@
         <v>1869309</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="M29" s="7">
         <v>1754</v>
@@ -4007,13 +4001,13 @@
         <v>1869309</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4091,7 +4085,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64C735EE-A19C-4B05-B73B-425880776AE5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BF8D8E1-A589-4AC6-89AB-FD18AD8A1420}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4108,7 +4102,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4228,13 +4222,13 @@
         <v>144413</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="M4" s="7">
         <v>135</v>
@@ -4243,13 +4237,13 @@
         <v>144413</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4277,13 +4271,13 @@
         <v>141849</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="M5" s="7">
         <v>140</v>
@@ -4292,13 +4286,13 @@
         <v>141849</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4377,13 +4371,13 @@
         <v>266175</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="M7" s="7">
         <v>238</v>
@@ -4392,13 +4386,13 @@
         <v>266175</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4426,13 +4420,13 @@
         <v>255286</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="M8" s="7">
         <v>245</v>
@@ -4441,13 +4435,13 @@
         <v>255286</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4526,13 +4520,13 @@
         <v>187999</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="M10" s="7">
         <v>180</v>
@@ -4541,13 +4535,13 @@
         <v>187999</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4575,13 +4569,13 @@
         <v>143610</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="M11" s="7">
         <v>147</v>
@@ -4590,13 +4584,13 @@
         <v>143610</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4675,13 +4669,13 @@
         <v>203988</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="M13" s="7">
         <v>185</v>
@@ -4690,13 +4684,13 @@
         <v>203988</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4724,13 +4718,13 @@
         <v>182090</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="M14" s="7">
         <v>172</v>
@@ -4739,13 +4733,13 @@
         <v>182090</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4824,13 +4818,13 @@
         <v>114692</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="M16" s="7">
         <v>111</v>
@@ -4839,13 +4833,13 @@
         <v>114692</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4873,13 +4867,13 @@
         <v>103027</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="M17" s="7">
         <v>111</v>
@@ -4888,13 +4882,13 @@
         <v>103027</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4973,13 +4967,13 @@
         <v>136442</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="M19" s="7">
         <v>128</v>
@@ -4988,13 +4982,13 @@
         <v>136442</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5022,13 +5016,13 @@
         <v>136673</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="M20" s="7">
         <v>135</v>
@@ -5037,13 +5031,13 @@
         <v>136673</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5122,13 +5116,13 @@
         <v>288524</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>30</v>
+        <v>160</v>
       </c>
       <c r="M22" s="7">
         <v>257</v>
@@ -5137,13 +5131,13 @@
         <v>288524</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>30</v>
+        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5171,13 +5165,13 @@
         <v>392860</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>32</v>
+        <v>162</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="M23" s="7">
         <v>380</v>
@@ -5186,13 +5180,13 @@
         <v>392860</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>32</v>
+        <v>162</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5271,13 +5265,13 @@
         <v>415067</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="M25" s="7">
         <v>361</v>
@@ -5286,13 +5280,13 @@
         <v>415067</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5320,13 +5314,13 @@
         <v>406995</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="M26" s="7">
         <v>390</v>
@@ -5335,13 +5329,13 @@
         <v>406995</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5420,13 +5414,13 @@
         <v>1757300</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="M28" s="7">
         <v>1595</v>
@@ -5435,13 +5429,13 @@
         <v>1757300</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5469,13 +5463,13 @@
         <v>1762390</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="M29" s="7">
         <v>1720</v>
@@ -5484,13 +5478,13 @@
         <v>1762390</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5568,7 +5562,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{603903C4-8A86-4A9B-9472-551A44B4BBD8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F31571E3-0A50-446F-B8A1-B8195C240AA2}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5585,7 +5579,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5705,13 +5699,13 @@
         <v>112139</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="M4" s="7">
         <v>236</v>
@@ -5720,13 +5714,13 @@
         <v>112139</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5754,13 +5748,13 @@
         <v>62407</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="M5" s="7">
         <v>113</v>
@@ -5769,13 +5763,13 @@
         <v>62407</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5854,13 +5848,13 @@
         <v>239844</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="M7" s="7">
         <v>336</v>
@@ -5869,13 +5863,13 @@
         <v>239844</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5903,13 +5897,13 @@
         <v>197712</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="M8" s="7">
         <v>225</v>
@@ -5918,13 +5912,13 @@
         <v>197712</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6003,13 +5997,13 @@
         <v>146012</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="M10" s="7">
         <v>241</v>
@@ -6018,13 +6012,13 @@
         <v>146012</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6052,13 +6046,13 @@
         <v>123760</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="M11" s="7">
         <v>145</v>
@@ -6067,13 +6061,13 @@
         <v>123760</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6152,13 +6146,13 @@
         <v>170058</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="M13" s="7">
         <v>303</v>
@@ -6167,13 +6161,13 @@
         <v>170058</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6201,13 +6195,13 @@
         <v>161666</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="M14" s="7">
         <v>160</v>
@@ -6216,13 +6210,13 @@
         <v>161666</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6301,13 +6295,13 @@
         <v>122692</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>205</v>
       </c>
       <c r="M16" s="7">
         <v>293</v>
@@ -6316,13 +6310,13 @@
         <v>122692</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6350,13 +6344,13 @@
         <v>47883</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="M17" s="7">
         <v>75</v>
@@ -6365,13 +6359,13 @@
         <v>47883</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6450,13 +6444,13 @@
         <v>119880</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>211</v>
       </c>
       <c r="M19" s="7">
         <v>241</v>
@@ -6465,13 +6459,13 @@
         <v>119880</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6499,13 +6493,13 @@
         <v>104865</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>214</v>
       </c>
       <c r="M20" s="7">
         <v>138</v>
@@ -6514,13 +6508,13 @@
         <v>104865</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6599,13 +6593,13 @@
         <v>411698</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>217</v>
       </c>
       <c r="M22" s="7">
         <v>450</v>
@@ -6614,13 +6608,13 @@
         <v>411698</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6648,13 +6642,13 @@
         <v>188008</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>220</v>
       </c>
       <c r="M23" s="7">
         <v>222</v>
@@ -6663,13 +6657,13 @@
         <v>188008</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6748,13 +6742,13 @@
         <v>260645</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>223</v>
       </c>
       <c r="M25" s="7">
         <v>367</v>
@@ -6763,13 +6757,13 @@
         <v>260645</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6797,13 +6791,13 @@
         <v>440860</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>226</v>
       </c>
       <c r="M26" s="7">
         <v>485</v>
@@ -6812,13 +6806,13 @@
         <v>440860</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6897,13 +6891,13 @@
         <v>1582967</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>229</v>
       </c>
       <c r="M28" s="7">
         <v>2467</v>
@@ -6912,13 +6906,13 @@
         <v>1582967</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6946,13 +6940,13 @@
         <v>1327161</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>232</v>
       </c>
       <c r="M29" s="7">
         <v>1563</v>
@@ -6961,13 +6955,13 @@
         <v>1327161</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P43-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P43-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D8788903-A5ED-4A90-B4E5-EF797F794FD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B274B76C-86BD-4CD6-AD06-71DDDDDADF41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2DD32579-FA7E-43EC-BEBE-EE55E9056305}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{62E45C70-7298-4166-9F3F-475BFDE69D01}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="227">
   <si>
     <t>Población según si le han realizado alguna vez una mamografía por prescripción de algún especialista en 2007 (Tasa respuesta: 50,33%)</t>
   </si>
@@ -71,7 +71,7 @@
     <t>Almeria</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>—%</t>
@@ -80,285 +80,288 @@
     <t>34,78%</t>
   </si>
   <si>
-    <t>29,01%</t>
+    <t>29,45%</t>
+  </si>
+  <si>
+    <t>40,86%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>65,22%</t>
+  </si>
+  <si>
+    <t>59,14%</t>
+  </si>
+  <si>
+    <t>70,55%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>36,41%</t>
+  </si>
+  <si>
+    <t>32,14%</t>
+  </si>
+  <si>
+    <t>40,67%</t>
+  </si>
+  <si>
+    <t>63,59%</t>
+  </si>
+  <si>
+    <t>59,33%</t>
+  </si>
+  <si>
+    <t>67,86%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>40,77%</t>
+  </si>
+  <si>
+    <t>35,97%</t>
+  </si>
+  <si>
+    <t>45,99%</t>
+  </si>
+  <si>
+    <t>59,23%</t>
+  </si>
+  <si>
+    <t>54,01%</t>
+  </si>
+  <si>
+    <t>64,03%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>41,22%</t>
+  </si>
+  <si>
+    <t>46,22%</t>
+  </si>
+  <si>
+    <t>58,78%</t>
+  </si>
+  <si>
+    <t>53,78%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>29,92%</t>
+  </si>
+  <si>
+    <t>23,54%</t>
+  </si>
+  <si>
+    <t>36,24%</t>
+  </si>
+  <si>
+    <t>70,08%</t>
+  </si>
+  <si>
+    <t>63,76%</t>
+  </si>
+  <si>
+    <t>76,46%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>38,28%</t>
+  </si>
+  <si>
+    <t>32,94%</t>
+  </si>
+  <si>
+    <t>44,31%</t>
+  </si>
+  <si>
+    <t>61,72%</t>
+  </si>
+  <si>
+    <t>55,69%</t>
+  </si>
+  <si>
+    <t>67,06%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>43,66%</t>
+  </si>
+  <si>
+    <t>39,58%</t>
+  </si>
+  <si>
+    <t>47,57%</t>
+  </si>
+  <si>
+    <t>56,34%</t>
+  </si>
+  <si>
+    <t>52,43%</t>
+  </si>
+  <si>
+    <t>60,42%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>34,37%</t>
+  </si>
+  <si>
+    <t>31,18%</t>
+  </si>
+  <si>
+    <t>37,56%</t>
+  </si>
+  <si>
+    <t>65,63%</t>
+  </si>
+  <si>
+    <t>62,44%</t>
+  </si>
+  <si>
+    <t>68,82%</t>
+  </si>
+  <si>
+    <t>37,91%</t>
+  </si>
+  <si>
+    <t>36,16%</t>
+  </si>
+  <si>
+    <t>39,59%</t>
+  </si>
+  <si>
+    <t>62,09%</t>
+  </si>
+  <si>
+    <t>60,41%</t>
+  </si>
+  <si>
+    <t>63,84%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si le han realizado alguna vez una mamografía por prescripción de algún especialista en 2012 (Tasa respuesta: 50,36%)</t>
+  </si>
+  <si>
+    <t>41,77%</t>
+  </si>
+  <si>
+    <t>37,11%</t>
+  </si>
+  <si>
+    <t>46,12%</t>
+  </si>
+  <si>
+    <t>58,23%</t>
+  </si>
+  <si>
+    <t>53,88%</t>
+  </si>
+  <si>
+    <t>62,89%</t>
+  </si>
+  <si>
+    <t>46,75%</t>
+  </si>
+  <si>
+    <t>41,03%</t>
+  </si>
+  <si>
+    <t>52,38%</t>
+  </si>
+  <si>
+    <t>53,25%</t>
+  </si>
+  <si>
+    <t>47,62%</t>
+  </si>
+  <si>
+    <t>58,97%</t>
+  </si>
+  <si>
+    <t>49,75%</t>
+  </si>
+  <si>
+    <t>45,4%</t>
+  </si>
+  <si>
+    <t>53,13%</t>
+  </si>
+  <si>
+    <t>50,25%</t>
+  </si>
+  <si>
+    <t>46,87%</t>
+  </si>
+  <si>
+    <t>54,6%</t>
+  </si>
+  <si>
+    <t>47,76%</t>
   </si>
   <si>
     <t>41,0%</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>65,22%</t>
+    <t>54,33%</t>
+  </si>
+  <si>
+    <t>52,24%</t>
+  </si>
+  <si>
+    <t>45,67%</t>
   </si>
   <si>
     <t>59,0%</t>
   </si>
   <si>
-    <t>70,99%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>36,41%</t>
-  </si>
-  <si>
-    <t>32,5%</t>
-  </si>
-  <si>
-    <t>40,78%</t>
-  </si>
-  <si>
-    <t>63,59%</t>
-  </si>
-  <si>
-    <t>59,22%</t>
-  </si>
-  <si>
-    <t>67,5%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>40,77%</t>
-  </si>
-  <si>
-    <t>36,19%</t>
-  </si>
-  <si>
-    <t>46,44%</t>
-  </si>
-  <si>
-    <t>59,23%</t>
-  </si>
-  <si>
-    <t>53,56%</t>
-  </si>
-  <si>
-    <t>63,81%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>41,22%</t>
-  </si>
-  <si>
-    <t>36,26%</t>
-  </si>
-  <si>
-    <t>46,18%</t>
-  </si>
-  <si>
-    <t>58,78%</t>
-  </si>
-  <si>
-    <t>53,82%</t>
-  </si>
-  <si>
-    <t>63,74%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>29,92%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>36,98%</t>
-  </si>
-  <si>
-    <t>70,08%</t>
-  </si>
-  <si>
-    <t>63,02%</t>
-  </si>
-  <si>
-    <t>76,09%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>38,28%</t>
-  </si>
-  <si>
-    <t>32,33%</t>
-  </si>
-  <si>
-    <t>44,48%</t>
-  </si>
-  <si>
-    <t>61,72%</t>
-  </si>
-  <si>
-    <t>55,52%</t>
-  </si>
-  <si>
-    <t>67,67%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>43,66%</t>
-  </si>
-  <si>
-    <t>39,68%</t>
-  </si>
-  <si>
-    <t>47,2%</t>
-  </si>
-  <si>
-    <t>56,34%</t>
-  </si>
-  <si>
-    <t>52,8%</t>
-  </si>
-  <si>
-    <t>60,32%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>34,37%</t>
-  </si>
-  <si>
-    <t>31,02%</t>
-  </si>
-  <si>
-    <t>37,66%</t>
-  </si>
-  <si>
-    <t>65,63%</t>
-  </si>
-  <si>
-    <t>62,34%</t>
-  </si>
-  <si>
-    <t>68,98%</t>
-  </si>
-  <si>
-    <t>37,91%</t>
-  </si>
-  <si>
-    <t>36,24%</t>
-  </si>
-  <si>
-    <t>39,42%</t>
-  </si>
-  <si>
-    <t>62,09%</t>
-  </si>
-  <si>
-    <t>60,58%</t>
-  </si>
-  <si>
-    <t>63,76%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si le han realizado alguna vez una mamografía por prescripción de algún especialista en 2012 (Tasa respuesta: 50,36%)</t>
-  </si>
-  <si>
-    <t>41,77%</t>
-  </si>
-  <si>
-    <t>37,41%</t>
-  </si>
-  <si>
-    <t>46,42%</t>
-  </si>
-  <si>
-    <t>58,23%</t>
-  </si>
-  <si>
-    <t>53,58%</t>
-  </si>
-  <si>
-    <t>62,59%</t>
-  </si>
-  <si>
-    <t>46,75%</t>
-  </si>
-  <si>
-    <t>41,67%</t>
-  </si>
-  <si>
-    <t>52,13%</t>
-  </si>
-  <si>
-    <t>53,25%</t>
-  </si>
-  <si>
-    <t>47,87%</t>
-  </si>
-  <si>
-    <t>58,33%</t>
-  </si>
-  <si>
-    <t>49,75%</t>
-  </si>
-  <si>
-    <t>46,2%</t>
-  </si>
-  <si>
-    <t>50,25%</t>
-  </si>
-  <si>
-    <t>53,8%</t>
-  </si>
-  <si>
-    <t>47,76%</t>
-  </si>
-  <si>
-    <t>41,37%</t>
-  </si>
-  <si>
-    <t>55,06%</t>
-  </si>
-  <si>
-    <t>52,24%</t>
-  </si>
-  <si>
-    <t>44,94%</t>
-  </si>
-  <si>
-    <t>58,63%</t>
-  </si>
-  <si>
     <t>48,62%</t>
   </si>
   <si>
-    <t>42,42%</t>
-  </si>
-  <si>
-    <t>54,39%</t>
+    <t>42,3%</t>
+  </si>
+  <si>
+    <t>54,58%</t>
   </si>
   <si>
     <t>51,38%</t>
   </si>
   <si>
-    <t>45,61%</t>
-  </si>
-  <si>
-    <t>57,58%</t>
+    <t>45,42%</t>
+  </si>
+  <si>
+    <t>57,7%</t>
   </si>
   <si>
     <t>51,07%</t>
   </si>
   <si>
+    <t>47,0%</t>
+  </si>
+  <si>
     <t>55,34%</t>
   </si>
   <si>
@@ -368,19 +371,22 @@
     <t>44,66%</t>
   </si>
   <si>
+    <t>53,0%</t>
+  </si>
+  <si>
     <t>44,61%</t>
   </si>
   <si>
     <t>41,02%</t>
   </si>
   <si>
-    <t>48,21%</t>
+    <t>48,24%</t>
   </si>
   <si>
     <t>55,39%</t>
   </si>
   <si>
-    <t>51,79%</t>
+    <t>51,76%</t>
   </si>
   <si>
     <t>58,98%</t>
@@ -389,19 +395,19 @@
     <t>47,14%</t>
   </si>
   <si>
-    <t>45,36%</t>
-  </si>
-  <si>
-    <t>48,81%</t>
+    <t>45,56%</t>
+  </si>
+  <si>
+    <t>48,86%</t>
   </si>
   <si>
     <t>52,86%</t>
   </si>
   <si>
-    <t>51,19%</t>
-  </si>
-  <si>
-    <t>54,64%</t>
+    <t>51,14%</t>
+  </si>
+  <si>
+    <t>54,44%</t>
   </si>
   <si>
     <t>Población según si le han realizado alguna vez una mamografía por prescripción de algún especialista en 2016 (Tasa respuesta: 50,46%)</t>
@@ -410,163 +416,157 @@
     <t>50,45%</t>
   </si>
   <si>
-    <t>44,59%</t>
-  </si>
-  <si>
-    <t>56,63%</t>
+    <t>44,87%</t>
+  </si>
+  <si>
+    <t>56,81%</t>
   </si>
   <si>
     <t>49,55%</t>
   </si>
   <si>
-    <t>43,37%</t>
-  </si>
-  <si>
-    <t>55,41%</t>
+    <t>43,19%</t>
+  </si>
+  <si>
+    <t>55,13%</t>
   </si>
   <si>
     <t>51,04%</t>
   </si>
   <si>
-    <t>46,83%</t>
-  </si>
-  <si>
-    <t>56,03%</t>
+    <t>46,62%</t>
+  </si>
+  <si>
+    <t>54,95%</t>
   </si>
   <si>
     <t>48,96%</t>
   </si>
   <si>
-    <t>43,97%</t>
-  </si>
-  <si>
-    <t>53,17%</t>
+    <t>45,05%</t>
+  </si>
+  <si>
+    <t>53,38%</t>
   </si>
   <si>
     <t>56,69%</t>
   </si>
   <si>
-    <t>51,16%</t>
-  </si>
-  <si>
-    <t>62,31%</t>
+    <t>51,01%</t>
+  </si>
+  <si>
+    <t>61,93%</t>
   </si>
   <si>
     <t>43,31%</t>
   </si>
   <si>
-    <t>37,69%</t>
-  </si>
-  <si>
-    <t>48,84%</t>
+    <t>38,07%</t>
+  </si>
+  <si>
+    <t>48,99%</t>
   </si>
   <si>
     <t>52,84%</t>
   </si>
   <si>
-    <t>47,21%</t>
-  </si>
-  <si>
-    <t>57,76%</t>
+    <t>47,39%</t>
+  </si>
+  <si>
+    <t>57,92%</t>
   </si>
   <si>
     <t>47,16%</t>
   </si>
   <si>
-    <t>42,24%</t>
-  </si>
-  <si>
-    <t>52,79%</t>
+    <t>42,08%</t>
+  </si>
+  <si>
+    <t>52,61%</t>
   </si>
   <si>
     <t>52,68%</t>
   </si>
   <si>
-    <t>46,13%</t>
-  </si>
-  <si>
-    <t>59,65%</t>
+    <t>46,61%</t>
+  </si>
+  <si>
+    <t>59,08%</t>
   </si>
   <si>
     <t>47,32%</t>
   </si>
   <si>
-    <t>40,35%</t>
-  </si>
-  <si>
-    <t>53,87%</t>
+    <t>40,92%</t>
+  </si>
+  <si>
+    <t>53,39%</t>
   </si>
   <si>
     <t>49,96%</t>
   </si>
   <si>
-    <t>43,52%</t>
-  </si>
-  <si>
-    <t>55,46%</t>
+    <t>43,47%</t>
+  </si>
+  <si>
+    <t>55,47%</t>
   </si>
   <si>
     <t>50,04%</t>
   </si>
   <si>
-    <t>44,54%</t>
-  </si>
-  <si>
-    <t>56,48%</t>
+    <t>44,53%</t>
+  </si>
+  <si>
+    <t>56,53%</t>
   </si>
   <si>
     <t>42,34%</t>
   </si>
   <si>
-    <t>38,59%</t>
-  </si>
-  <si>
-    <t>46,09%</t>
+    <t>38,3%</t>
+  </si>
+  <si>
+    <t>46,47%</t>
   </si>
   <si>
     <t>57,66%</t>
   </si>
   <si>
-    <t>53,91%</t>
-  </si>
-  <si>
-    <t>61,41%</t>
+    <t>53,53%</t>
+  </si>
+  <si>
+    <t>61,7%</t>
   </si>
   <si>
     <t>50,49%</t>
   </si>
   <si>
-    <t>47,1%</t>
-  </si>
-  <si>
-    <t>54,5%</t>
+    <t>46,91%</t>
+  </si>
+  <si>
+    <t>54,05%</t>
   </si>
   <si>
     <t>49,51%</t>
   </si>
   <si>
-    <t>45,5%</t>
-  </si>
-  <si>
-    <t>52,9%</t>
+    <t>45,95%</t>
+  </si>
+  <si>
+    <t>53,09%</t>
   </si>
   <si>
     <t>49,93%</t>
   </si>
   <si>
-    <t>48,11%</t>
-  </si>
-  <si>
-    <t>51,61%</t>
+    <t>51,71%</t>
   </si>
   <si>
     <t>50,07%</t>
   </si>
   <si>
-    <t>48,39%</t>
-  </si>
-  <si>
-    <t>51,89%</t>
+    <t>48,29%</t>
   </si>
   <si>
     <t>Población según si le han realizado alguna vez una mamografía por prescripción de algún especialista en 2023 (Tasa respuesta: 46,09%)</t>
@@ -575,109 +575,97 @@
     <t>64,25%</t>
   </si>
   <si>
-    <t>57,74%</t>
-  </si>
-  <si>
-    <t>69,92%</t>
+    <t>57,86%</t>
+  </si>
+  <si>
+    <t>69,85%</t>
   </si>
   <si>
     <t>35,75%</t>
   </si>
   <si>
-    <t>30,08%</t>
-  </si>
-  <si>
-    <t>42,26%</t>
+    <t>30,15%</t>
+  </si>
+  <si>
+    <t>42,14%</t>
   </si>
   <si>
     <t>54,81%</t>
   </si>
   <si>
-    <t>50,34%</t>
+    <t>50,03%</t>
+  </si>
+  <si>
+    <t>45,19%</t>
+  </si>
+  <si>
+    <t>49,97%</t>
+  </si>
+  <si>
+    <t>54,12%</t>
+  </si>
+  <si>
+    <t>48,05%</t>
   </si>
   <si>
     <t>59,28%</t>
   </si>
   <si>
-    <t>45,19%</t>
+    <t>45,88%</t>
   </si>
   <si>
     <t>40,72%</t>
   </si>
   <si>
-    <t>49,66%</t>
-  </si>
-  <si>
-    <t>54,12%</t>
-  </si>
-  <si>
-    <t>48,52%</t>
-  </si>
-  <si>
-    <t>59,7%</t>
-  </si>
-  <si>
-    <t>45,88%</t>
-  </si>
-  <si>
-    <t>40,3%</t>
-  </si>
-  <si>
-    <t>51,48%</t>
+    <t>51,95%</t>
   </si>
   <si>
     <t>51,26%</t>
   </si>
   <si>
-    <t>43,22%</t>
-  </si>
-  <si>
-    <t>57,64%</t>
+    <t>43,69%</t>
+  </si>
+  <si>
+    <t>58,41%</t>
   </si>
   <si>
     <t>48,74%</t>
   </si>
   <si>
-    <t>42,36%</t>
-  </si>
-  <si>
-    <t>56,78%</t>
+    <t>41,59%</t>
+  </si>
+  <si>
+    <t>56,31%</t>
   </si>
   <si>
     <t>71,93%</t>
   </si>
   <si>
-    <t>65,47%</t>
-  </si>
-  <si>
-    <t>77,27%</t>
+    <t>65,73%</t>
+  </si>
+  <si>
+    <t>77,5%</t>
   </si>
   <si>
     <t>28,07%</t>
   </si>
   <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>34,53%</t>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>34,27%</t>
   </si>
   <si>
     <t>53,34%</t>
   </si>
   <si>
-    <t>48,13%</t>
-  </si>
-  <si>
-    <t>59,46%</t>
+    <t>58,84%</t>
   </si>
   <si>
     <t>46,66%</t>
   </si>
   <si>
-    <t>40,54%</t>
-  </si>
-  <si>
-    <t>51,87%</t>
+    <t>41,16%</t>
   </si>
   <si>
     <t>68,65%</t>
@@ -686,13 +674,13 @@
     <t>59,88%</t>
   </si>
   <si>
-    <t>84,91%</t>
+    <t>83,83%</t>
   </si>
   <si>
     <t>31,35%</t>
   </si>
   <si>
-    <t>15,09%</t>
+    <t>16,17%</t>
   </si>
   <si>
     <t>40,12%</t>
@@ -701,37 +689,37 @@
     <t>37,16%</t>
   </si>
   <si>
-    <t>33,83%</t>
-  </si>
-  <si>
-    <t>40,7%</t>
+    <t>34,08%</t>
+  </si>
+  <si>
+    <t>40,69%</t>
   </si>
   <si>
     <t>62,84%</t>
   </si>
   <si>
-    <t>59,3%</t>
-  </si>
-  <si>
-    <t>66,17%</t>
+    <t>59,31%</t>
+  </si>
+  <si>
+    <t>65,92%</t>
   </si>
   <si>
     <t>54,4%</t>
   </si>
   <si>
-    <t>51,81%</t>
-  </si>
-  <si>
-    <t>59,81%</t>
+    <t>51,72%</t>
+  </si>
+  <si>
+    <t>60,6%</t>
   </si>
   <si>
     <t>45,6%</t>
   </si>
   <si>
-    <t>40,19%</t>
-  </si>
-  <si>
-    <t>48,19%</t>
+    <t>39,4%</t>
+  </si>
+  <si>
+    <t>48,28%</t>
   </si>
 </sst>
 </file>
@@ -1143,7 +1131,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81797AD6-A5C2-4D20-A1D7-4E907BCC0F91}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7CA1B2E-3AC4-4293-B456-98C1704491C6}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1730,10 +1718,10 @@
         <v>35</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="M13" s="7">
         <v>161</v>
@@ -1745,10 +1733,10 @@
         <v>35</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1776,13 +1764,13 @@
         <v>218326</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="K14" s="7" t="s">
-        <v>39</v>
-      </c>
       <c r="L14" s="7" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="M14" s="7">
         <v>223</v>
@@ -1791,13 +1779,13 @@
         <v>218326</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="P14" s="7" t="s">
-        <v>39</v>
-      </c>
       <c r="Q14" s="7" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1851,7 +1839,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1876,13 +1864,13 @@
         <v>61380</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="M16" s="7">
         <v>60</v>
@@ -1891,13 +1879,13 @@
         <v>61380</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1925,13 +1913,13 @@
         <v>143762</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>47</v>
       </c>
       <c r="M17" s="7">
         <v>136</v>
@@ -1940,13 +1928,13 @@
         <v>143762</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2000,7 +1988,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2025,13 +2013,13 @@
         <v>106102</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="M19" s="7">
         <v>103</v>
@@ -2040,13 +2028,13 @@
         <v>106102</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2074,13 +2062,13 @@
         <v>171102</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="M20" s="7">
         <v>166</v>
@@ -2089,13 +2077,13 @@
         <v>171102</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2149,7 +2137,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2174,13 +2162,13 @@
         <v>276948</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>58</v>
       </c>
       <c r="M22" s="7">
         <v>270</v>
@@ -2189,13 +2177,13 @@
         <v>276948</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2223,13 +2211,13 @@
         <v>357310</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>61</v>
       </c>
       <c r="M23" s="7">
         <v>347</v>
@@ -2238,13 +2226,13 @@
         <v>357310</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2298,7 +2286,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2323,13 +2311,13 @@
         <v>267060</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M25" s="7">
         <v>255</v>
@@ -2338,13 +2326,13 @@
         <v>267060</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2372,13 +2360,13 @@
         <v>509855</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>68</v>
       </c>
       <c r="M26" s="7">
         <v>483</v>
@@ -2387,13 +2375,13 @@
         <v>509855</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2472,13 +2460,13 @@
         <v>1273441</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="M28" s="7">
         <v>1252</v>
@@ -2487,13 +2475,13 @@
         <v>1273441</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2521,13 +2509,13 @@
         <v>2086053</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="M29" s="7">
         <v>2025</v>
@@ -2536,13 +2524,13 @@
         <v>2086053</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2596,7 +2584,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -2620,7 +2608,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F53869F3-7855-4B32-B6DC-68A8C6E68F59}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF76B577-E7C2-4604-8AC5-5827BD9BA9D3}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2637,7 +2625,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2894,13 +2882,13 @@
         <v>218325</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="M7" s="7">
         <v>195</v>
@@ -2909,13 +2897,13 @@
         <v>218325</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2943,13 +2931,13 @@
         <v>304408</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="M8" s="7">
         <v>284</v>
@@ -2958,13 +2946,13 @@
         <v>304408</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3043,13 +3031,13 @@
         <v>158977</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="M10" s="7">
         <v>144</v>
@@ -3058,13 +3046,13 @@
         <v>158977</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3092,13 +3080,13 @@
         <v>181057</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="M11" s="7">
         <v>172</v>
@@ -3107,13 +3095,13 @@
         <v>181057</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3192,13 +3180,13 @@
         <v>332770</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="M13" s="7">
         <v>310</v>
@@ -3207,13 +3195,13 @@
         <v>332770</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3241,10 +3229,10 @@
         <v>336107</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>92</v>
@@ -3256,10 +3244,10 @@
         <v>336107</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>92</v>
@@ -3316,7 +3304,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3465,7 +3453,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3614,7 +3602,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3642,10 +3630,10 @@
         <v>105</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>58</v>
+        <v>106</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M22" s="7">
         <v>315</v>
@@ -3657,10 +3645,10 @@
         <v>105</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>58</v>
+        <v>106</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3685,31 +3673,31 @@
         <v>318</v>
       </c>
       <c r="I23" s="7">
-        <v>337995</v>
+        <v>337996</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="M23" s="7">
         <v>318</v>
       </c>
       <c r="N23" s="7">
-        <v>337995</v>
+        <v>337996</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>60</v>
+        <v>110</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3734,7 +3722,7 @@
         <v>633</v>
       </c>
       <c r="I24" s="7">
-        <v>690818</v>
+        <v>690819</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>19</v>
@@ -3749,7 +3737,7 @@
         <v>633</v>
       </c>
       <c r="N24" s="7">
-        <v>690818</v>
+        <v>690819</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>19</v>
@@ -3763,7 +3751,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3788,13 +3776,13 @@
         <v>363327</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M25" s="7">
         <v>327</v>
@@ -3803,13 +3791,13 @@
         <v>363327</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3837,13 +3825,13 @@
         <v>451147</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="M26" s="7">
         <v>421</v>
@@ -3852,13 +3840,13 @@
         <v>451147</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3937,13 +3925,13 @@
         <v>1667249</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="M28" s="7">
         <v>1523</v>
@@ -3952,13 +3940,13 @@
         <v>1667249</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3986,13 +3974,13 @@
         <v>1869309</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M29" s="7">
         <v>1754</v>
@@ -4001,13 +3989,13 @@
         <v>1869309</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4061,7 +4049,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -4085,7 +4073,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BF8D8E1-A589-4AC6-89AB-FD18AD8A1420}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADC609C8-5987-49A2-8207-15198F705D62}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4102,7 +4090,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4222,13 +4210,13 @@
         <v>144413</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="M4" s="7">
         <v>135</v>
@@ -4237,13 +4225,13 @@
         <v>144413</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4271,13 +4259,13 @@
         <v>141849</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="M5" s="7">
         <v>140</v>
@@ -4286,13 +4274,13 @@
         <v>141849</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4371,13 +4359,13 @@
         <v>266175</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="M7" s="7">
         <v>238</v>
@@ -4386,13 +4374,13 @@
         <v>266175</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4420,13 +4408,13 @@
         <v>255286</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="M8" s="7">
         <v>245</v>
@@ -4435,13 +4423,13 @@
         <v>255286</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4520,13 +4508,13 @@
         <v>187999</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="M10" s="7">
         <v>180</v>
@@ -4535,13 +4523,13 @@
         <v>187999</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4569,13 +4557,13 @@
         <v>143610</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M11" s="7">
         <v>147</v>
@@ -4584,13 +4572,13 @@
         <v>143610</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4669,13 +4657,13 @@
         <v>203988</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="M13" s="7">
         <v>185</v>
@@ -4684,13 +4672,13 @@
         <v>203988</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4718,13 +4706,13 @@
         <v>182090</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="M14" s="7">
         <v>172</v>
@@ -4733,13 +4721,13 @@
         <v>182090</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4793,7 +4781,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4818,13 +4806,13 @@
         <v>114692</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="M16" s="7">
         <v>111</v>
@@ -4833,13 +4821,13 @@
         <v>114692</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4867,13 +4855,13 @@
         <v>103027</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M17" s="7">
         <v>111</v>
@@ -4882,13 +4870,13 @@
         <v>103027</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4942,7 +4930,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4967,13 +4955,13 @@
         <v>136442</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="M19" s="7">
         <v>128</v>
@@ -4982,13 +4970,13 @@
         <v>136442</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5016,13 +5004,13 @@
         <v>136673</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M20" s="7">
         <v>135</v>
@@ -5031,13 +5019,13 @@
         <v>136673</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5091,7 +5079,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5116,13 +5104,13 @@
         <v>288524</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="M22" s="7">
         <v>257</v>
@@ -5131,13 +5119,13 @@
         <v>288524</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5165,13 +5153,13 @@
         <v>392860</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="M23" s="7">
         <v>380</v>
@@ -5180,13 +5168,13 @@
         <v>392860</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5240,7 +5228,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -5265,13 +5253,13 @@
         <v>415067</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="M25" s="7">
         <v>361</v>
@@ -5280,13 +5268,13 @@
         <v>415067</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5314,13 +5302,13 @@
         <v>406995</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="M26" s="7">
         <v>390</v>
@@ -5329,13 +5317,13 @@
         <v>406995</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5414,13 +5402,13 @@
         <v>1757300</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>171</v>
+        <v>113</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M28" s="7">
         <v>1595</v>
@@ -5429,13 +5417,13 @@
         <v>1757300</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>171</v>
+        <v>113</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5463,13 +5451,13 @@
         <v>1762390</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>175</v>
+        <v>115</v>
       </c>
       <c r="M29" s="7">
         <v>1720</v>
@@ -5478,13 +5466,13 @@
         <v>1762390</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>175</v>
+        <v>115</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5538,7 +5526,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -5562,7 +5550,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F31571E3-0A50-446F-B8A1-B8195C240AA2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1929155-428A-46FD-A94B-F85ED37D2F91}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5854,7 +5842,7 @@
         <v>184</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>185</v>
+        <v>31</v>
       </c>
       <c r="M7" s="7">
         <v>336</v>
@@ -5869,7 +5857,7 @@
         <v>184</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>185</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5897,13 +5885,13 @@
         <v>197712</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="M8" s="7">
         <v>225</v>
@@ -5912,13 +5900,13 @@
         <v>197712</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5997,13 +5985,13 @@
         <v>146012</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="M10" s="7">
         <v>241</v>
@@ -6012,13 +6000,13 @@
         <v>146012</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6046,13 +6034,13 @@
         <v>123760</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="M11" s="7">
         <v>145</v>
@@ -6061,13 +6049,13 @@
         <v>123760</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6146,13 +6134,13 @@
         <v>170058</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>197</v>
       </c>
       <c r="M13" s="7">
         <v>303</v>
@@ -6161,13 +6149,13 @@
         <v>170058</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6195,13 +6183,13 @@
         <v>161666</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="M14" s="7">
         <v>160</v>
@@ -6210,13 +6198,13 @@
         <v>161666</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6270,7 +6258,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6295,13 +6283,13 @@
         <v>122692</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="M16" s="7">
         <v>293</v>
@@ -6310,13 +6298,13 @@
         <v>122692</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6344,13 +6332,13 @@
         <v>47883</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>206</v>
       </c>
       <c r="M17" s="7">
         <v>75</v>
@@ -6359,13 +6347,13 @@
         <v>47883</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6419,7 +6407,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6444,13 +6432,13 @@
         <v>119880</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>208</v>
+        <v>85</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="M19" s="7">
         <v>241</v>
@@ -6459,13 +6447,13 @@
         <v>119880</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>208</v>
+        <v>85</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6493,13 +6481,13 @@
         <v>104865</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>212</v>
+        <v>83</v>
       </c>
       <c r="M20" s="7">
         <v>138</v>
@@ -6508,13 +6496,13 @@
         <v>104865</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>212</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6568,7 +6556,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6593,13 +6581,13 @@
         <v>411698</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="M22" s="7">
         <v>450</v>
@@ -6608,13 +6596,13 @@
         <v>411698</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6642,13 +6630,13 @@
         <v>188008</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="M23" s="7">
         <v>222</v>
@@ -6657,13 +6645,13 @@
         <v>188008</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6717,7 +6705,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -6742,13 +6730,13 @@
         <v>260645</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="M25" s="7">
         <v>367</v>
@@ -6757,13 +6745,13 @@
         <v>260645</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6791,13 +6779,13 @@
         <v>440860</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="M26" s="7">
         <v>485</v>
@@ -6806,13 +6794,13 @@
         <v>440860</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6891,13 +6879,13 @@
         <v>1582967</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="M28" s="7">
         <v>2467</v>
@@ -6906,13 +6894,13 @@
         <v>1582967</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6940,13 +6928,13 @@
         <v>1327161</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="M29" s="7">
         <v>1563</v>
@@ -6955,13 +6943,13 @@
         <v>1327161</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7015,7 +7003,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P43-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P43-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B274B76C-86BD-4CD6-AD06-71DDDDDADF41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5CCDD9F1-8F90-41AA-9DC5-293AE7B05736}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{62E45C70-7298-4166-9F3F-475BFDE69D01}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{FCBBB262-0E4F-4D96-9189-518CFC605C77}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="233">
   <si>
     <t>Población según si le han realizado alguna vez una mamografía por prescripción de algún especialista en 2007 (Tasa respuesta: 50,33%)</t>
   </si>
@@ -266,6 +266,24 @@
     <t>Población según si le han realizado alguna vez una mamografía por prescripción de algún especialista en 2012 (Tasa respuesta: 50,36%)</t>
   </si>
   <si>
+    <t>51,64%</t>
+  </si>
+  <si>
+    <t>45,79%</t>
+  </si>
+  <si>
+    <t>57,7%</t>
+  </si>
+  <si>
+    <t>48,36%</t>
+  </si>
+  <si>
+    <t>42,3%</t>
+  </si>
+  <si>
+    <t>54,21%</t>
+  </si>
+  <si>
     <t>41,77%</t>
   </si>
   <si>
@@ -302,22 +320,22 @@
     <t>58,97%</t>
   </si>
   <si>
-    <t>49,75%</t>
-  </si>
-  <si>
-    <t>45,4%</t>
-  </si>
-  <si>
-    <t>53,13%</t>
-  </si>
-  <si>
-    <t>50,25%</t>
-  </si>
-  <si>
-    <t>46,87%</t>
-  </si>
-  <si>
-    <t>54,6%</t>
+    <t>48,37%</t>
+  </si>
+  <si>
+    <t>43,19%</t>
+  </si>
+  <si>
+    <t>53,58%</t>
+  </si>
+  <si>
+    <t>51,63%</t>
+  </si>
+  <si>
+    <t>46,42%</t>
+  </si>
+  <si>
+    <t>56,81%</t>
   </si>
   <si>
     <t>47,76%</t>
@@ -341,9 +359,6 @@
     <t>48,62%</t>
   </si>
   <si>
-    <t>42,3%</t>
-  </si>
-  <si>
     <t>54,58%</t>
   </si>
   <si>
@@ -353,9 +368,6 @@
     <t>45,42%</t>
   </si>
   <si>
-    <t>57,7%</t>
-  </si>
-  <si>
     <t>51,07%</t>
   </si>
   <si>
@@ -419,15 +431,9 @@
     <t>44,87%</t>
   </si>
   <si>
-    <t>56,81%</t>
-  </si>
-  <si>
     <t>49,55%</t>
   </si>
   <si>
-    <t>43,19%</t>
-  </si>
-  <si>
     <t>55,13%</t>
   </si>
   <si>
@@ -572,154 +578,166 @@
     <t>Población según si le han realizado alguna vez una mamografía por prescripción de algún especialista en 2023 (Tasa respuesta: 46,09%)</t>
   </si>
   <si>
-    <t>64,25%</t>
-  </si>
-  <si>
-    <t>57,86%</t>
-  </si>
-  <si>
-    <t>69,85%</t>
-  </si>
-  <si>
-    <t>35,75%</t>
-  </si>
-  <si>
-    <t>30,15%</t>
-  </si>
-  <si>
-    <t>42,14%</t>
-  </si>
-  <si>
-    <t>54,81%</t>
-  </si>
-  <si>
-    <t>50,03%</t>
-  </si>
-  <si>
-    <t>45,19%</t>
-  </si>
-  <si>
-    <t>49,97%</t>
-  </si>
-  <si>
-    <t>54,12%</t>
-  </si>
-  <si>
-    <t>48,05%</t>
-  </si>
-  <si>
-    <t>59,28%</t>
-  </si>
-  <si>
-    <t>45,88%</t>
-  </si>
-  <si>
-    <t>40,72%</t>
-  </si>
-  <si>
-    <t>51,95%</t>
-  </si>
-  <si>
-    <t>51,26%</t>
-  </si>
-  <si>
-    <t>43,69%</t>
-  </si>
-  <si>
-    <t>58,41%</t>
-  </si>
-  <si>
-    <t>48,74%</t>
-  </si>
-  <si>
-    <t>41,59%</t>
-  </si>
-  <si>
-    <t>56,31%</t>
-  </si>
-  <si>
-    <t>71,93%</t>
-  </si>
-  <si>
-    <t>65,73%</t>
-  </si>
-  <si>
-    <t>77,5%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>34,27%</t>
-  </si>
-  <si>
-    <t>53,34%</t>
-  </si>
-  <si>
-    <t>58,84%</t>
-  </si>
-  <si>
-    <t>46,66%</t>
-  </si>
-  <si>
-    <t>41,16%</t>
-  </si>
-  <si>
-    <t>68,65%</t>
-  </si>
-  <si>
-    <t>59,88%</t>
-  </si>
-  <si>
-    <t>83,83%</t>
-  </si>
-  <si>
-    <t>31,35%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>40,12%</t>
-  </si>
-  <si>
-    <t>37,16%</t>
-  </si>
-  <si>
-    <t>34,08%</t>
-  </si>
-  <si>
-    <t>40,69%</t>
-  </si>
-  <si>
-    <t>62,84%</t>
-  </si>
-  <si>
-    <t>59,31%</t>
-  </si>
-  <si>
-    <t>65,92%</t>
-  </si>
-  <si>
-    <t>54,4%</t>
-  </si>
-  <si>
-    <t>51,72%</t>
-  </si>
-  <si>
-    <t>60,6%</t>
-  </si>
-  <si>
-    <t>45,6%</t>
-  </si>
-  <si>
-    <t>39,4%</t>
-  </si>
-  <si>
-    <t>48,28%</t>
+    <t>62,34%</t>
+  </si>
+  <si>
+    <t>55,26%</t>
+  </si>
+  <si>
+    <t>68,32%</t>
+  </si>
+  <si>
+    <t>37,66%</t>
+  </si>
+  <si>
+    <t>31,68%</t>
+  </si>
+  <si>
+    <t>44,74%</t>
+  </si>
+  <si>
+    <t>54,76%</t>
+  </si>
+  <si>
+    <t>49,84%</t>
+  </si>
+  <si>
+    <t>59,06%</t>
+  </si>
+  <si>
+    <t>45,24%</t>
+  </si>
+  <si>
+    <t>40,94%</t>
+  </si>
+  <si>
+    <t>50,16%</t>
+  </si>
+  <si>
+    <t>53,83%</t>
+  </si>
+  <si>
+    <t>47,75%</t>
+  </si>
+  <si>
+    <t>59,02%</t>
+  </si>
+  <si>
+    <t>46,17%</t>
+  </si>
+  <si>
+    <t>40,98%</t>
+  </si>
+  <si>
+    <t>52,25%</t>
+  </si>
+  <si>
+    <t>47,21%</t>
+  </si>
+  <si>
+    <t>27,12%</t>
+  </si>
+  <si>
+    <t>62,37%</t>
+  </si>
+  <si>
+    <t>52,79%</t>
+  </si>
+  <si>
+    <t>37,63%</t>
+  </si>
+  <si>
+    <t>72,88%</t>
+  </si>
+  <si>
+    <t>72,84%</t>
+  </si>
+  <si>
+    <t>67,05%</t>
+  </si>
+  <si>
+    <t>78,15%</t>
+  </si>
+  <si>
+    <t>27,16%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>32,95%</t>
+  </si>
+  <si>
+    <t>53,26%</t>
+  </si>
+  <si>
+    <t>47,66%</t>
+  </si>
+  <si>
+    <t>58,75%</t>
+  </si>
+  <si>
+    <t>46,74%</t>
+  </si>
+  <si>
+    <t>41,25%</t>
+  </si>
+  <si>
+    <t>52,34%</t>
+  </si>
+  <si>
+    <t>73,63%</t>
+  </si>
+  <si>
+    <t>60,17%</t>
+  </si>
+  <si>
+    <t>90,21%</t>
+  </si>
+  <si>
+    <t>26,37%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>39,83%</t>
+  </si>
+  <si>
+    <t>37,71%</t>
+  </si>
+  <si>
+    <t>34,65%</t>
+  </si>
+  <si>
+    <t>41,24%</t>
+  </si>
+  <si>
+    <t>62,29%</t>
+  </si>
+  <si>
+    <t>58,76%</t>
+  </si>
+  <si>
+    <t>65,35%</t>
+  </si>
+  <si>
+    <t>55,92%</t>
+  </si>
+  <si>
+    <t>51,1%</t>
+  </si>
+  <si>
+    <t>65,8%</t>
+  </si>
+  <si>
+    <t>44,08%</t>
+  </si>
+  <si>
+    <t>34,2%</t>
+  </si>
+  <si>
+    <t>48,9%</t>
   </si>
 </sst>
 </file>
@@ -1131,7 +1149,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7CA1B2E-3AC4-4293-B456-98C1704491C6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{952AF783-CED2-449F-81F9-B418F32531FF}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2608,7 +2626,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF76B577-E7C2-4604-8AC5-5827BD9BA9D3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D66ADFD-6C21-4F8D-8981-17F041700A19}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2739,30 +2757,34 @@
         <v>11</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>129</v>
+      </c>
+      <c r="I4" s="7">
+        <v>145577</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>75</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>11</v>
+        <v>77</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>129</v>
+      </c>
+      <c r="N4" s="7">
+        <v>145577</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>75</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>11</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2784,30 +2806,34 @@
         <v>11</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>122</v>
+      </c>
+      <c r="I5" s="7">
+        <v>136324</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>11</v>
+        <v>78</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>11</v>
+        <v>79</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>122</v>
+      </c>
+      <c r="N5" s="7">
+        <v>136324</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>11</v>
+        <v>78</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>11</v>
+        <v>79</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2829,30 +2855,34 @@
         <v>11</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>251</v>
+      </c>
+      <c r="I6" s="7">
+        <v>281901</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>251</v>
+      </c>
+      <c r="N6" s="7">
+        <v>281901</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2882,13 +2912,13 @@
         <v>218325</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="M7" s="7">
         <v>195</v>
@@ -2897,13 +2927,13 @@
         <v>218325</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2931,13 +2961,13 @@
         <v>304408</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="M8" s="7">
         <v>284</v>
@@ -2946,13 +2976,13 @@
         <v>304408</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3031,13 +3061,13 @@
         <v>158977</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="M10" s="7">
         <v>144</v>
@@ -3046,13 +3076,13 @@
         <v>158977</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3080,13 +3110,13 @@
         <v>181057</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="M11" s="7">
         <v>172</v>
@@ -3095,13 +3125,13 @@
         <v>181057</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3174,34 +3204,34 @@
         <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>310</v>
+        <v>181</v>
       </c>
       <c r="I13" s="7">
-        <v>332770</v>
+        <v>187193</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="M13" s="7">
-        <v>310</v>
+        <v>181</v>
       </c>
       <c r="N13" s="7">
-        <v>332770</v>
+        <v>187193</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3223,34 +3253,34 @@
         <v>11</v>
       </c>
       <c r="H14" s="7">
-        <v>310</v>
+        <v>188</v>
       </c>
       <c r="I14" s="7">
-        <v>336107</v>
+        <v>199783</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="M14" s="7">
-        <v>310</v>
+        <v>188</v>
       </c>
       <c r="N14" s="7">
-        <v>336107</v>
+        <v>199783</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3272,10 +3302,10 @@
         <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>620</v>
+        <v>369</v>
       </c>
       <c r="I15" s="7">
-        <v>668877</v>
+        <v>386976</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -3287,10 +3317,10 @@
         <v>19</v>
       </c>
       <c r="M15" s="7">
-        <v>620</v>
+        <v>369</v>
       </c>
       <c r="N15" s="7">
-        <v>668877</v>
+        <v>386976</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -3329,13 +3359,13 @@
         <v>104880</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="M16" s="7">
         <v>101</v>
@@ -3344,13 +3374,13 @@
         <v>104880</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3378,13 +3408,13 @@
         <v>114711</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="M17" s="7">
         <v>111</v>
@@ -3393,13 +3423,13 @@
         <v>114711</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3478,13 +3508,13 @@
         <v>136147</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="M19" s="7">
         <v>131</v>
@@ -3493,13 +3523,13 @@
         <v>136147</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3527,13 +3557,13 @@
         <v>143884</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="M20" s="7">
         <v>138</v>
@@ -3542,13 +3572,13 @@
         <v>143884</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3627,13 +3657,13 @@
         <v>352823</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="M22" s="7">
         <v>315</v>
@@ -3642,13 +3672,13 @@
         <v>352823</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3676,13 +3706,13 @@
         <v>337996</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="M23" s="7">
         <v>318</v>
@@ -3691,13 +3721,13 @@
         <v>337996</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3776,13 +3806,13 @@
         <v>363327</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="M25" s="7">
         <v>327</v>
@@ -3791,13 +3821,13 @@
         <v>363327</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3825,13 +3855,13 @@
         <v>451147</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="M26" s="7">
         <v>421</v>
@@ -3840,13 +3870,13 @@
         <v>451147</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3925,13 +3955,13 @@
         <v>1667249</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="M28" s="7">
         <v>1523</v>
@@ -3940,13 +3970,13 @@
         <v>1667249</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3974,13 +4004,13 @@
         <v>1869309</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="M29" s="7">
         <v>1754</v>
@@ -3989,13 +4019,13 @@
         <v>1869309</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4073,7 +4103,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADC609C8-5987-49A2-8207-15198F705D62}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66709CB5-4374-476E-8C07-6517704A0BED}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4090,7 +4120,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4210,13 +4240,13 @@
         <v>144413</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>126</v>
+        <v>98</v>
       </c>
       <c r="M4" s="7">
         <v>135</v>
@@ -4225,13 +4255,13 @@
         <v>144413</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>126</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4259,13 +4289,13 @@
         <v>141849</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>128</v>
+        <v>94</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="M5" s="7">
         <v>140</v>
@@ -4274,13 +4304,13 @@
         <v>141849</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>128</v>
+        <v>94</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4359,13 +4389,13 @@
         <v>266175</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="M7" s="7">
         <v>238</v>
@@ -4374,13 +4404,13 @@
         <v>266175</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4408,13 +4438,13 @@
         <v>255286</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M8" s="7">
         <v>245</v>
@@ -4423,13 +4453,13 @@
         <v>255286</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4508,13 +4538,13 @@
         <v>187999</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M10" s="7">
         <v>180</v>
@@ -4523,13 +4553,13 @@
         <v>187999</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4557,13 +4587,13 @@
         <v>143610</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="M11" s="7">
         <v>147</v>
@@ -4572,13 +4602,13 @@
         <v>143610</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4657,13 +4687,13 @@
         <v>203988</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="M13" s="7">
         <v>185</v>
@@ -4672,13 +4702,13 @@
         <v>203988</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4706,13 +4736,13 @@
         <v>182090</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="M14" s="7">
         <v>172</v>
@@ -4721,13 +4751,13 @@
         <v>182090</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4806,13 +4836,13 @@
         <v>114692</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="M16" s="7">
         <v>111</v>
@@ -4821,13 +4851,13 @@
         <v>114692</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4855,13 +4885,13 @@
         <v>103027</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="M17" s="7">
         <v>111</v>
@@ -4870,13 +4900,13 @@
         <v>103027</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4955,13 +4985,13 @@
         <v>136442</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M19" s="7">
         <v>128</v>
@@ -4970,13 +5000,13 @@
         <v>136442</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5004,13 +5034,13 @@
         <v>136673</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="M20" s="7">
         <v>135</v>
@@ -5019,13 +5049,13 @@
         <v>136673</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5104,13 +5134,13 @@
         <v>288524</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="M22" s="7">
         <v>257</v>
@@ -5119,13 +5149,13 @@
         <v>288524</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5153,13 +5183,13 @@
         <v>392860</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="M23" s="7">
         <v>380</v>
@@ -5168,13 +5198,13 @@
         <v>392860</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5250,31 +5280,31 @@
         <v>361</v>
       </c>
       <c r="I25" s="7">
-        <v>415067</v>
+        <v>415068</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="M25" s="7">
         <v>361</v>
       </c>
       <c r="N25" s="7">
-        <v>415067</v>
+        <v>415068</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5302,13 +5332,13 @@
         <v>406995</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="M26" s="7">
         <v>390</v>
@@ -5317,13 +5347,13 @@
         <v>406995</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5348,7 +5378,7 @@
         <v>751</v>
       </c>
       <c r="I27" s="7">
-        <v>822062</v>
+        <v>822063</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>19</v>
@@ -5363,7 +5393,7 @@
         <v>751</v>
       </c>
       <c r="N27" s="7">
-        <v>822062</v>
+        <v>822063</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>19</v>
@@ -5402,13 +5432,13 @@
         <v>1757300</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="M28" s="7">
         <v>1595</v>
@@ -5417,13 +5447,13 @@
         <v>1757300</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5451,13 +5481,13 @@
         <v>1762390</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="M29" s="7">
         <v>1720</v>
@@ -5466,13 +5496,13 @@
         <v>1762390</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5550,7 +5580,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1929155-428A-46FD-A94B-F85ED37D2F91}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{081BB7B8-65FE-43F6-8894-D4A3FAB97085}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5567,7 +5597,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5684,31 +5714,31 @@
         <v>236</v>
       </c>
       <c r="I4" s="7">
-        <v>112139</v>
+        <v>116092</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="M4" s="7">
         <v>236</v>
       </c>
       <c r="N4" s="7">
-        <v>112139</v>
+        <v>116092</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5733,31 +5763,31 @@
         <v>113</v>
       </c>
       <c r="I5" s="7">
-        <v>62407</v>
+        <v>70121</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M5" s="7">
         <v>113</v>
       </c>
       <c r="N5" s="7">
-        <v>62407</v>
+        <v>70121</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5782,7 +5812,7 @@
         <v>349</v>
       </c>
       <c r="I6" s="7">
-        <v>174546</v>
+        <v>186213</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -5797,7 +5827,7 @@
         <v>349</v>
       </c>
       <c r="N6" s="7">
-        <v>174546</v>
+        <v>186213</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>19</v>
@@ -5833,31 +5863,31 @@
         <v>336</v>
       </c>
       <c r="I7" s="7">
-        <v>239844</v>
+        <v>222489</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>31</v>
+        <v>187</v>
       </c>
       <c r="M7" s="7">
         <v>336</v>
       </c>
       <c r="N7" s="7">
-        <v>239844</v>
+        <v>222489</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>31</v>
+        <v>187</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5882,31 +5912,31 @@
         <v>225</v>
       </c>
       <c r="I8" s="7">
-        <v>197712</v>
+        <v>183847</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>28</v>
+        <v>189</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="M8" s="7">
         <v>225</v>
       </c>
       <c r="N8" s="7">
-        <v>197712</v>
+        <v>183847</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>28</v>
+        <v>189</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5931,7 +5961,7 @@
         <v>561</v>
       </c>
       <c r="I9" s="7">
-        <v>437556</v>
+        <v>406336</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -5946,7 +5976,7 @@
         <v>561</v>
       </c>
       <c r="N9" s="7">
-        <v>437556</v>
+        <v>406336</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>19</v>
@@ -5982,31 +6012,31 @@
         <v>241</v>
       </c>
       <c r="I10" s="7">
-        <v>146012</v>
+        <v>135628</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="M10" s="7">
         <v>241</v>
       </c>
       <c r="N10" s="7">
-        <v>146012</v>
+        <v>135628</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6031,31 +6061,31 @@
         <v>145</v>
       </c>
       <c r="I11" s="7">
-        <v>123760</v>
+        <v>116348</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="M11" s="7">
         <v>145</v>
       </c>
       <c r="N11" s="7">
-        <v>123760</v>
+        <v>116348</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6080,7 +6110,7 @@
         <v>386</v>
       </c>
       <c r="I12" s="7">
-        <v>269772</v>
+        <v>251976</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -6095,7 +6125,7 @@
         <v>386</v>
       </c>
       <c r="N12" s="7">
-        <v>269772</v>
+        <v>251976</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>19</v>
@@ -6131,31 +6161,31 @@
         <v>303</v>
       </c>
       <c r="I13" s="7">
-        <v>170058</v>
+        <v>182240</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="M13" s="7">
         <v>303</v>
       </c>
       <c r="N13" s="7">
-        <v>170058</v>
+        <v>182240</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6180,31 +6210,31 @@
         <v>160</v>
       </c>
       <c r="I14" s="7">
-        <v>161666</v>
+        <v>203797</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="M14" s="7">
         <v>160</v>
       </c>
       <c r="N14" s="7">
-        <v>161666</v>
+        <v>203797</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6229,7 +6259,7 @@
         <v>463</v>
       </c>
       <c r="I15" s="7">
-        <v>331724</v>
+        <v>386037</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -6244,7 +6274,7 @@
         <v>463</v>
       </c>
       <c r="N15" s="7">
-        <v>331724</v>
+        <v>386037</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -6280,31 +6310,31 @@
         <v>293</v>
       </c>
       <c r="I16" s="7">
-        <v>122692</v>
+        <v>111978</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="M16" s="7">
         <v>293</v>
       </c>
       <c r="N16" s="7">
-        <v>122692</v>
+        <v>111978</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6329,31 +6359,31 @@
         <v>75</v>
       </c>
       <c r="I17" s="7">
-        <v>47883</v>
+        <v>41749</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="M17" s="7">
         <v>75</v>
       </c>
       <c r="N17" s="7">
-        <v>47883</v>
+        <v>41749</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6378,7 +6408,7 @@
         <v>368</v>
       </c>
       <c r="I18" s="7">
-        <v>170575</v>
+        <v>153727</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -6393,7 +6423,7 @@
         <v>368</v>
       </c>
       <c r="N18" s="7">
-        <v>170575</v>
+        <v>153727</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>19</v>
@@ -6429,31 +6459,31 @@
         <v>241</v>
       </c>
       <c r="I19" s="7">
-        <v>119880</v>
+        <v>111753</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>85</v>
+        <v>210</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="M19" s="7">
         <v>241</v>
       </c>
       <c r="N19" s="7">
-        <v>119880</v>
+        <v>111753</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>85</v>
+        <v>210</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6478,31 +6508,31 @@
         <v>138</v>
       </c>
       <c r="I20" s="7">
-        <v>104865</v>
+        <v>98071</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>83</v>
+        <v>214</v>
       </c>
       <c r="M20" s="7">
         <v>138</v>
       </c>
       <c r="N20" s="7">
-        <v>104865</v>
+        <v>98071</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>83</v>
+        <v>214</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6527,7 +6557,7 @@
         <v>379</v>
       </c>
       <c r="I21" s="7">
-        <v>224745</v>
+        <v>209824</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>19</v>
@@ -6542,7 +6572,7 @@
         <v>379</v>
       </c>
       <c r="N21" s="7">
-        <v>224745</v>
+        <v>209824</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>19</v>
@@ -6578,31 +6608,31 @@
         <v>450</v>
       </c>
       <c r="I22" s="7">
-        <v>411698</v>
+        <v>484922</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="M22" s="7">
         <v>450</v>
       </c>
       <c r="N22" s="7">
-        <v>411698</v>
+        <v>484922</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6627,31 +6657,31 @@
         <v>222</v>
       </c>
       <c r="I23" s="7">
-        <v>188008</v>
+        <v>173706</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="M23" s="7">
         <v>222</v>
       </c>
       <c r="N23" s="7">
-        <v>188008</v>
+        <v>173706</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6676,7 +6706,7 @@
         <v>672</v>
       </c>
       <c r="I24" s="7">
-        <v>599706</v>
+        <v>658628</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>19</v>
@@ -6691,7 +6721,7 @@
         <v>672</v>
       </c>
       <c r="N24" s="7">
-        <v>599706</v>
+        <v>658628</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>19</v>
@@ -6727,31 +6757,31 @@
         <v>367</v>
       </c>
       <c r="I25" s="7">
-        <v>260645</v>
+        <v>218035</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="M25" s="7">
         <v>367</v>
       </c>
       <c r="N25" s="7">
-        <v>260645</v>
+        <v>218035</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6776,31 +6806,31 @@
         <v>485</v>
       </c>
       <c r="I26" s="7">
-        <v>440860</v>
+        <v>360182</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="M26" s="7">
         <v>485</v>
       </c>
       <c r="N26" s="7">
-        <v>440860</v>
+        <v>360182</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6825,7 +6855,7 @@
         <v>852</v>
       </c>
       <c r="I27" s="7">
-        <v>701505</v>
+        <v>578217</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>19</v>
@@ -6840,7 +6870,7 @@
         <v>852</v>
       </c>
       <c r="N27" s="7">
-        <v>701505</v>
+        <v>578217</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>19</v>
@@ -6876,31 +6906,31 @@
         <v>2467</v>
       </c>
       <c r="I28" s="7">
-        <v>1582967</v>
+        <v>1583137</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="M28" s="7">
         <v>2467</v>
       </c>
       <c r="N28" s="7">
-        <v>1582967</v>
+        <v>1583137</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6925,31 +6955,31 @@
         <v>1563</v>
       </c>
       <c r="I29" s="7">
-        <v>1327161</v>
+        <v>1247819</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="M29" s="7">
         <v>1563</v>
       </c>
       <c r="N29" s="7">
-        <v>1327161</v>
+        <v>1247819</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6974,7 +7004,7 @@
         <v>4030</v>
       </c>
       <c r="I30" s="7">
-        <v>2910128</v>
+        <v>2830956</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>19</v>
@@ -6989,7 +7019,7 @@
         <v>4030</v>
       </c>
       <c r="N30" s="7">
-        <v>2910128</v>
+        <v>2830956</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>19</v>
